--- a/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8903533077305622</v>
+        <v>0.890353307730561</v>
       </c>
       <c r="D2">
-        <v>0.9057351808863724</v>
+        <v>0.9057351808863712</v>
       </c>
       <c r="E2">
-        <v>0.9082959523859622</v>
+        <v>0.9082959523859611</v>
       </c>
       <c r="F2">
-        <v>0.8882821794640496</v>
+        <v>0.8882821794640483</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9163933515016353</v>
+        <v>0.9163933515016338</v>
       </c>
       <c r="K2">
-        <v>0.9186852259267747</v>
+        <v>0.9186852259267737</v>
       </c>
       <c r="L2">
-        <v>0.9212001948480786</v>
+        <v>0.9212001948480776</v>
       </c>
       <c r="M2">
-        <v>0.901553584971671</v>
+        <v>0.9015535849716697</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.908204666269396</v>
+        <v>0.9082046662693926</v>
       </c>
       <c r="D3">
-        <v>0.9216991745556143</v>
+        <v>0.9216991745556112</v>
       </c>
       <c r="E3">
-        <v>0.9240151752762829</v>
+        <v>0.9240151752762795</v>
       </c>
       <c r="F3">
-        <v>0.9072548551282175</v>
+        <v>0.9072548551282146</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9315542421859727</v>
+        <v>0.9315542421859694</v>
       </c>
       <c r="K3">
-        <v>0.9334427021987525</v>
+        <v>0.9334427021987494</v>
       </c>
       <c r="L3">
-        <v>0.9357223994881627</v>
+        <v>0.9357223994881598</v>
       </c>
       <c r="M3">
-        <v>0.919230174721884</v>
+        <v>0.919230174721881</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9189056815779993</v>
+        <v>0.918905681578001</v>
       </c>
       <c r="D4">
-        <v>0.9312817778987337</v>
+        <v>0.9312817778987358</v>
       </c>
       <c r="E4">
-        <v>0.9334507269632136</v>
+        <v>0.9334507269632156</v>
       </c>
       <c r="F4">
-        <v>0.9186357515832533</v>
+        <v>0.9186357515832554</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9406387661233316</v>
+        <v>0.9406387661233335</v>
       </c>
       <c r="K4">
-        <v>0.9422869991904034</v>
+        <v>0.9422869991904054</v>
       </c>
       <c r="L4">
-        <v>0.944424745065517</v>
+        <v>0.9444247450655189</v>
       </c>
       <c r="M4">
-        <v>0.9298266341270232</v>
+        <v>0.9298266341270254</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9232297491879008</v>
+        <v>0.923229749187901</v>
       </c>
       <c r="D5">
-        <v>0.9351564245327132</v>
+        <v>0.9351564245327134</v>
       </c>
       <c r="E5">
-        <v>0.9372658497901748</v>
+        <v>0.9372658497901749</v>
       </c>
       <c r="F5">
-        <v>0.9232365275449639</v>
+        <v>0.9232365275449641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9443084010831283</v>
+        <v>0.9443084010831284</v>
       </c>
       <c r="K5">
-        <v>0.9458598584961098</v>
+        <v>0.94585985849611</v>
       </c>
       <c r="L5">
-        <v>0.947940019491199</v>
+        <v>0.9479400194911993</v>
       </c>
       <c r="M5">
-        <v>0.9341085090640415</v>
+        <v>0.9341085090640416</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9239462477258018</v>
+        <v>0.9239462477258006</v>
       </c>
       <c r="D6">
-        <v>0.935798586540562</v>
+        <v>0.9357985865405608</v>
       </c>
       <c r="E6">
-        <v>0.9378981419704077</v>
+        <v>0.9378981419704063</v>
       </c>
       <c r="F6">
-        <v>0.9239989965599671</v>
+        <v>0.9239989965599659</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9449163781008718</v>
+        <v>0.9449163781008707</v>
       </c>
       <c r="K6">
-        <v>0.9464518149513904</v>
+        <v>0.9464518149513893</v>
       </c>
       <c r="L6">
-        <v>0.9485224207283692</v>
+        <v>0.948522420728368</v>
       </c>
       <c r="M6">
-        <v>0.9348180196495455</v>
+        <v>0.9348180196495441</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9189641132758137</v>
+        <v>0.9189641132758118</v>
       </c>
       <c r="D7">
-        <v>0.9313341272123623</v>
+        <v>0.9313341272123605</v>
       </c>
       <c r="E7">
-        <v>0.9335022723656706</v>
+        <v>0.9335022723656685</v>
       </c>
       <c r="F7">
-        <v>0.9186979144213349</v>
+        <v>0.9186979144213326</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9406883597516229</v>
+        <v>0.9406883597516208</v>
       </c>
       <c r="K7">
-        <v>0.942335284001763</v>
+        <v>0.942335284001761</v>
       </c>
       <c r="L7">
-        <v>0.9444722526294267</v>
+        <v>0.9444722526294249</v>
       </c>
       <c r="M7">
-        <v>0.9298844954415135</v>
+        <v>0.9298844954415112</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8965821578109471</v>
+        <v>0.8965821578109502</v>
       </c>
       <c r="D8">
-        <v>0.9113022136966883</v>
+        <v>0.911302213696691</v>
       </c>
       <c r="E8">
-        <v>0.9137776299176792</v>
+        <v>0.9137776299176816</v>
       </c>
       <c r="F8">
-        <v>0.8949007118048848</v>
+        <v>0.8949007118048876</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9216839655569955</v>
+        <v>0.9216839655569984</v>
       </c>
       <c r="K8">
-        <v>0.9238346647263769</v>
+        <v>0.9238346647263793</v>
       </c>
       <c r="L8">
-        <v>0.9262677370501476</v>
+        <v>0.9262677370501501</v>
       </c>
       <c r="M8">
-        <v>0.9077214139810639</v>
+        <v>0.9077214139810668</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +645,28 @@
         <v>0.8487428849517058</v>
       </c>
       <c r="D9">
-        <v>0.868649324111588</v>
+        <v>0.8686493241115886</v>
       </c>
       <c r="E9">
-        <v>0.871780397634022</v>
+        <v>0.8717803976340223</v>
       </c>
       <c r="F9">
-        <v>0.8440951854647462</v>
+        <v>0.8440951854647464</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8810572313330606</v>
+        <v>0.8810572313330608</v>
       </c>
       <c r="K9">
-        <v>0.8843058796298998</v>
+        <v>0.8843058796299</v>
       </c>
       <c r="L9">
-        <v>0.8873638084150379</v>
+        <v>0.8873638084150381</v>
       </c>
       <c r="M9">
-        <v>0.8603507887174557</v>
+        <v>0.8603507887174561</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.806628772316182</v>
+        <v>0.8066287723161822</v>
       </c>
       <c r="D10">
         <v>0.8313358814012897</v>
       </c>
       <c r="E10">
-        <v>0.8350477520355672</v>
+        <v>0.8350477520355675</v>
       </c>
       <c r="F10">
-        <v>0.7993779930716588</v>
+        <v>0.7993779930716589</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8453569842219509</v>
+        <v>0.8453569842219512</v>
       </c>
       <c r="K10">
-        <v>0.8496044285050669</v>
+        <v>0.8496044285050668</v>
       </c>
       <c r="L10">
-        <v>0.8532071526932106</v>
+        <v>0.8532071526932107</v>
       </c>
       <c r="M10">
-        <v>0.8186446720750403</v>
+        <v>0.8186446720750404</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7835739096374804</v>
+        <v>0.7835739096374794</v>
       </c>
       <c r="D11">
-        <v>0.8110240639516336</v>
+        <v>0.8110240639516324</v>
       </c>
       <c r="E11">
-        <v>0.8150568066620146</v>
+        <v>0.8150568066620136</v>
       </c>
       <c r="F11">
-        <v>0.7748783634040639</v>
+        <v>0.7748783634040629</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8258647358688396</v>
+        <v>0.8258647358688387</v>
       </c>
       <c r="K11">
-        <v>0.8306751556108192</v>
+        <v>0.830675155610818</v>
       </c>
       <c r="L11">
-        <v>0.834575029119625</v>
+        <v>0.8345750291196242</v>
       </c>
       <c r="M11">
-        <v>0.7958076903870618</v>
+        <v>0.7958076903870609</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.773788283688666</v>
+        <v>0.7737882836886663</v>
       </c>
       <c r="D12">
         <v>0.8024307303000618</v>
       </c>
       <c r="E12">
-        <v>0.8066004543970018</v>
+        <v>0.806600454397002</v>
       </c>
       <c r="F12">
         <v>0.7644717457084832</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8176057782814027</v>
+        <v>0.8176057782814028</v>
       </c>
       <c r="K12">
-        <v>0.8226591329420623</v>
+        <v>0.8226591329420625</v>
       </c>
       <c r="L12">
-        <v>0.8266849833546793</v>
+        <v>0.8266849833546795</v>
       </c>
       <c r="M12">
-        <v>0.7861125870155813</v>
+        <v>0.7861125870155815</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7759573220384677</v>
+        <v>0.7759573220384671</v>
       </c>
       <c r="D13">
-        <v>0.8043339734880748</v>
+        <v>0.8043339734880743</v>
       </c>
       <c r="E13">
-        <v>0.8084732916235019</v>
+        <v>0.8084732916235013</v>
       </c>
       <c r="F13">
-        <v>0.7667789103261082</v>
+        <v>0.7667789103261078</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8194356018360378</v>
+        <v>0.8194356018360371</v>
       </c>
       <c r="K13">
-        <v>0.824434892533357</v>
+        <v>0.8244348925333563</v>
       </c>
       <c r="L13">
-        <v>0.828432825969183</v>
+        <v>0.8284328259691826</v>
       </c>
       <c r="M13">
-        <v>0.7882616821621268</v>
+        <v>0.7882616821621266</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7827949160073021</v>
+        <v>0.7827949160073047</v>
       </c>
       <c r="D14">
-        <v>0.8103393470881084</v>
+        <v>0.8103393470881106</v>
       </c>
       <c r="E14">
-        <v>0.8143829761917736</v>
+        <v>0.8143829761917758</v>
       </c>
       <c r="F14">
-        <v>0.7740501310779477</v>
+        <v>0.7740501310779504</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8252069327170891</v>
+        <v>0.8252069327170913</v>
       </c>
       <c r="K14">
-        <v>0.8300366008526298</v>
+        <v>0.8300366008526318</v>
       </c>
       <c r="L14">
-        <v>0.8339465057112233</v>
+        <v>0.8339465057112254</v>
       </c>
       <c r="M14">
-        <v>0.7950359523876199</v>
+        <v>0.7950359523876223</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7868216766224656</v>
+        <v>0.786821676622465</v>
       </c>
       <c r="D15">
-        <v>0.8138799344424901</v>
+        <v>0.8138799344424898</v>
       </c>
       <c r="E15">
-        <v>0.8178673226864321</v>
+        <v>0.8178673226864317</v>
       </c>
       <c r="F15">
-        <v>0.778331078067713</v>
+        <v>0.7783310780677126</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8286078489401396</v>
+        <v>0.8286078489401393</v>
       </c>
       <c r="K15">
-        <v>0.8333381836967891</v>
+        <v>0.8333381836967889</v>
       </c>
       <c r="L15">
-        <v>0.8371962290428354</v>
+        <v>0.837196229042835</v>
       </c>
       <c r="M15">
-        <v>0.7990251224314461</v>
+        <v>0.7990251224314459</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,13 +866,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8080252512266642</v>
+        <v>0.8080252512266645</v>
       </c>
       <c r="D16">
         <v>0.8325690123769216</v>
       </c>
       <c r="E16">
-        <v>0.8362615237072121</v>
+        <v>0.8362615237072123</v>
       </c>
       <c r="F16">
         <v>0.8008613388387363</v>
@@ -881,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.846539040932148</v>
+        <v>0.8465390409321484</v>
       </c>
       <c r="K16">
         <v>0.8507527818160467</v>
       </c>
       <c r="L16">
-        <v>0.8543374880846135</v>
+        <v>0.8543374880846134</v>
       </c>
       <c r="M16">
-        <v>0.8200277890500719</v>
+        <v>0.820027789050072</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8198103383217979</v>
+        <v>0.8198103383217963</v>
       </c>
       <c r="D17">
-        <v>0.8429875462911484</v>
+        <v>0.8429875462911469</v>
       </c>
       <c r="E17">
-        <v>0.8465169914478695</v>
+        <v>0.8465169914478677</v>
       </c>
       <c r="F17">
-        <v>0.8133773878399551</v>
+        <v>0.8133773878399529</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.856520011656832</v>
+        <v>0.8565200116568304</v>
       </c>
       <c r="K17">
-        <v>0.8604510117469933</v>
+        <v>0.8604510117469917</v>
       </c>
       <c r="L17">
-        <v>0.8638835551777004</v>
+        <v>0.8638835551776988</v>
       </c>
       <c r="M17">
-        <v>0.8316995430595546</v>
+        <v>0.8316995430595527</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8262638448278937</v>
+        <v>0.8262638448278955</v>
       </c>
       <c r="D18">
-        <v>0.8487014811161195</v>
+        <v>0.8487014811161211</v>
       </c>
       <c r="E18">
-        <v>0.8521418486630093</v>
+        <v>0.8521418486630108</v>
       </c>
       <c r="F18">
-        <v>0.8202298842138431</v>
+        <v>0.8202298842138445</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8619893555517372</v>
+        <v>0.8619893555517391</v>
       </c>
       <c r="K18">
-        <v>0.8657667574418435</v>
+        <v>0.8657667574418447</v>
       </c>
       <c r="L18">
-        <v>0.8691158852369953</v>
+        <v>0.8691158852369969</v>
       </c>
       <c r="M18">
-        <v>0.8380906197089427</v>
+        <v>0.8380906197089438</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.828401602250312</v>
+        <v>0.8284016022503099</v>
       </c>
       <c r="D19">
-        <v>0.8505955675506884</v>
+        <v>0.8505955675506868</v>
       </c>
       <c r="E19">
-        <v>0.8540064586433666</v>
+        <v>0.8540064586433646</v>
       </c>
       <c r="F19">
-        <v>0.8224996599360926</v>
+        <v>0.8224996599360902</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.863801637158767</v>
+        <v>0.863801637158765</v>
       </c>
       <c r="K19">
-        <v>0.8675283432149712</v>
+        <v>0.8675283432149692</v>
       </c>
       <c r="L19">
-        <v>0.8708498230798863</v>
+        <v>0.8708498230798847</v>
       </c>
       <c r="M19">
-        <v>0.8402076488304909</v>
+        <v>0.8402076488304888</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8185916094704809</v>
+        <v>0.8185916094704807</v>
       </c>
       <c r="D20">
-        <v>0.8419091657742542</v>
+        <v>0.841909165774254</v>
       </c>
       <c r="E20">
-        <v>0.8454554495210199</v>
+        <v>0.8454554495210194</v>
       </c>
       <c r="F20">
-        <v>0.8120832223243346</v>
+        <v>0.8120832223243343</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8554874244929483</v>
+        <v>0.8554874244929481</v>
       </c>
       <c r="K20">
-        <v>0.8594475269490351</v>
+        <v>0.8594475269490349</v>
       </c>
       <c r="L20">
-        <v>0.8628958154990448</v>
+        <v>0.8628958154990444</v>
       </c>
       <c r="M20">
-        <v>0.8304925772222173</v>
+        <v>0.8304925772222168</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.780822042872779</v>
+        <v>0.7808220428727805</v>
       </c>
       <c r="D21">
-        <v>0.8086057253367739</v>
+        <v>0.8086057253367752</v>
       </c>
       <c r="E21">
-        <v>0.8126769390685536</v>
+        <v>0.8126769390685548</v>
       </c>
       <c r="F21">
-        <v>0.7719524110780219</v>
+        <v>0.7719524110780235</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8235412441834643</v>
+        <v>0.8235412441834655</v>
       </c>
       <c r="K21">
-        <v>0.8284197299237755</v>
+        <v>0.8284197299237767</v>
       </c>
       <c r="L21">
-        <v>0.832355037830049</v>
+        <v>0.8323550378300503</v>
       </c>
       <c r="M21">
-        <v>0.7930814181910183</v>
+        <v>0.7930814181910198</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7490758713656016</v>
+        <v>0.7490758713656008</v>
       </c>
       <c r="D22">
-        <v>0.7808113016313035</v>
+        <v>0.7808113016313027</v>
       </c>
       <c r="E22">
-        <v>0.7853292906124986</v>
+        <v>0.7853292906124971</v>
       </c>
       <c r="F22">
-        <v>0.7381623166824708</v>
+        <v>0.7381623166824697</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7967944883443154</v>
+        <v>0.7967944883443145</v>
       </c>
       <c r="K22">
-        <v>0.802473044371428</v>
+        <v>0.8024730443714271</v>
       </c>
       <c r="L22">
-        <v>0.8068167215254609</v>
+        <v>0.8068167215254599</v>
       </c>
       <c r="M22">
-        <v>0.7616213417778377</v>
+        <v>0.7616213417778367</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7670545184842686</v>
+        <v>0.7670545184842716</v>
       </c>
       <c r="D23">
-        <v>0.7965277862757858</v>
+        <v>0.7965277862757888</v>
       </c>
       <c r="E23">
-        <v>0.800792067273101</v>
+        <v>0.8007920672731035</v>
       </c>
       <c r="F23">
-        <v>0.7573072587368715</v>
+        <v>0.7573072587368747</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8119282250252531</v>
+        <v>0.8119282250252557</v>
       </c>
       <c r="K23">
-        <v>0.8171502282770219</v>
+        <v>0.8171502282770248</v>
       </c>
       <c r="L23">
-        <v>0.8212627245329255</v>
+        <v>0.8212627245329279</v>
       </c>
       <c r="M23">
-        <v>0.7794402470016557</v>
+        <v>0.7794402470016587</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8191435717192006</v>
+        <v>0.8191435717192028</v>
       </c>
       <c r="D24">
-        <v>0.8423975370750911</v>
+        <v>0.8423975370750928</v>
       </c>
       <c r="E24">
-        <v>0.8459361939548796</v>
+        <v>0.8459361939548813</v>
       </c>
       <c r="F24">
-        <v>0.8126693536738541</v>
+        <v>0.8126693536738563</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8559550715747263</v>
+        <v>0.8559550715747281</v>
       </c>
       <c r="K24">
-        <v>0.8599019897492967</v>
+        <v>0.8599019897492985</v>
       </c>
       <c r="L24">
-        <v>0.8633431476264417</v>
+        <v>0.8633431476264434</v>
       </c>
       <c r="M24">
-        <v>0.8310392131196885</v>
+        <v>0.8310392131196905</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8624421592823709</v>
+        <v>0.8624421592823706</v>
       </c>
       <c r="D25">
-        <v>0.8808375898768056</v>
+        <v>0.8808375898768054</v>
       </c>
       <c r="E25">
         <v>0.8837807293648244</v>
       </c>
       <c r="F25">
-        <v>0.8586394014415785</v>
+        <v>0.8586394014415784</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8926873169433197</v>
+        <v>0.8926873169433194</v>
       </c>
       <c r="K25">
-        <v>0.895618086063992</v>
+        <v>0.8956180860639916</v>
       </c>
       <c r="L25">
         <v>0.8984979283426513</v>

--- a/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.890353307730561</v>
+        <v>0.8903533077305622</v>
       </c>
       <c r="D2">
-        <v>0.9057351808863712</v>
+        <v>0.9057351808863724</v>
       </c>
       <c r="E2">
-        <v>0.9082959523859611</v>
+        <v>0.9082959523859622</v>
       </c>
       <c r="F2">
-        <v>0.8882821794640483</v>
+        <v>0.8882821794640496</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9163933515016338</v>
+        <v>0.9163933515016353</v>
       </c>
       <c r="K2">
-        <v>0.9186852259267737</v>
+        <v>0.9186852259267747</v>
       </c>
       <c r="L2">
-        <v>0.9212001948480776</v>
+        <v>0.9212001948480786</v>
       </c>
       <c r="M2">
-        <v>0.9015535849716697</v>
+        <v>0.901553584971671</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9082046662693926</v>
+        <v>0.908204666269396</v>
       </c>
       <c r="D3">
-        <v>0.9216991745556112</v>
+        <v>0.9216991745556143</v>
       </c>
       <c r="E3">
-        <v>0.9240151752762795</v>
+        <v>0.9240151752762829</v>
       </c>
       <c r="F3">
-        <v>0.9072548551282146</v>
+        <v>0.9072548551282175</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9315542421859694</v>
+        <v>0.9315542421859727</v>
       </c>
       <c r="K3">
-        <v>0.9334427021987494</v>
+        <v>0.9334427021987525</v>
       </c>
       <c r="L3">
-        <v>0.9357223994881598</v>
+        <v>0.9357223994881627</v>
       </c>
       <c r="M3">
-        <v>0.919230174721881</v>
+        <v>0.919230174721884</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.918905681578001</v>
+        <v>0.9189056815779993</v>
       </c>
       <c r="D4">
-        <v>0.9312817778987358</v>
+        <v>0.9312817778987337</v>
       </c>
       <c r="E4">
-        <v>0.9334507269632156</v>
+        <v>0.9334507269632136</v>
       </c>
       <c r="F4">
-        <v>0.9186357515832554</v>
+        <v>0.9186357515832533</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9406387661233335</v>
+        <v>0.9406387661233316</v>
       </c>
       <c r="K4">
-        <v>0.9422869991904054</v>
+        <v>0.9422869991904034</v>
       </c>
       <c r="L4">
-        <v>0.9444247450655189</v>
+        <v>0.944424745065517</v>
       </c>
       <c r="M4">
-        <v>0.9298266341270254</v>
+        <v>0.9298266341270232</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.923229749187901</v>
+        <v>0.9232297491879008</v>
       </c>
       <c r="D5">
-        <v>0.9351564245327134</v>
+        <v>0.9351564245327132</v>
       </c>
       <c r="E5">
-        <v>0.9372658497901749</v>
+        <v>0.9372658497901748</v>
       </c>
       <c r="F5">
-        <v>0.9232365275449641</v>
+        <v>0.9232365275449639</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9443084010831284</v>
+        <v>0.9443084010831283</v>
       </c>
       <c r="K5">
-        <v>0.94585985849611</v>
+        <v>0.9458598584961098</v>
       </c>
       <c r="L5">
-        <v>0.9479400194911993</v>
+        <v>0.947940019491199</v>
       </c>
       <c r="M5">
-        <v>0.9341085090640416</v>
+        <v>0.9341085090640415</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9239462477258006</v>
+        <v>0.9239462477258018</v>
       </c>
       <c r="D6">
-        <v>0.9357985865405608</v>
+        <v>0.935798586540562</v>
       </c>
       <c r="E6">
-        <v>0.9378981419704063</v>
+        <v>0.9378981419704077</v>
       </c>
       <c r="F6">
-        <v>0.9239989965599659</v>
+        <v>0.9239989965599671</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9449163781008707</v>
+        <v>0.9449163781008718</v>
       </c>
       <c r="K6">
-        <v>0.9464518149513893</v>
+        <v>0.9464518149513904</v>
       </c>
       <c r="L6">
-        <v>0.948522420728368</v>
+        <v>0.9485224207283692</v>
       </c>
       <c r="M6">
-        <v>0.9348180196495441</v>
+        <v>0.9348180196495455</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9189641132758118</v>
+        <v>0.9189641132758137</v>
       </c>
       <c r="D7">
-        <v>0.9313341272123605</v>
+        <v>0.9313341272123623</v>
       </c>
       <c r="E7">
-        <v>0.9335022723656685</v>
+        <v>0.9335022723656706</v>
       </c>
       <c r="F7">
-        <v>0.9186979144213326</v>
+        <v>0.9186979144213349</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9406883597516208</v>
+        <v>0.9406883597516229</v>
       </c>
       <c r="K7">
-        <v>0.942335284001761</v>
+        <v>0.942335284001763</v>
       </c>
       <c r="L7">
-        <v>0.9444722526294249</v>
+        <v>0.9444722526294267</v>
       </c>
       <c r="M7">
-        <v>0.9298844954415112</v>
+        <v>0.9298844954415135</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8965821578109502</v>
+        <v>0.8965821578109471</v>
       </c>
       <c r="D8">
-        <v>0.911302213696691</v>
+        <v>0.9113022136966883</v>
       </c>
       <c r="E8">
-        <v>0.9137776299176816</v>
+        <v>0.9137776299176792</v>
       </c>
       <c r="F8">
-        <v>0.8949007118048876</v>
+        <v>0.8949007118048848</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9216839655569984</v>
+        <v>0.9216839655569955</v>
       </c>
       <c r="K8">
-        <v>0.9238346647263793</v>
+        <v>0.9238346647263769</v>
       </c>
       <c r="L8">
-        <v>0.9262677370501501</v>
+        <v>0.9262677370501476</v>
       </c>
       <c r="M8">
-        <v>0.9077214139810668</v>
+        <v>0.9077214139810639</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +645,28 @@
         <v>0.8487428849517058</v>
       </c>
       <c r="D9">
-        <v>0.8686493241115886</v>
+        <v>0.868649324111588</v>
       </c>
       <c r="E9">
-        <v>0.8717803976340223</v>
+        <v>0.871780397634022</v>
       </c>
       <c r="F9">
-        <v>0.8440951854647464</v>
+        <v>0.8440951854647462</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8810572313330608</v>
+        <v>0.8810572313330606</v>
       </c>
       <c r="K9">
-        <v>0.8843058796299</v>
+        <v>0.8843058796298998</v>
       </c>
       <c r="L9">
-        <v>0.8873638084150381</v>
+        <v>0.8873638084150379</v>
       </c>
       <c r="M9">
-        <v>0.8603507887174561</v>
+        <v>0.8603507887174557</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8066287723161822</v>
+        <v>0.806628772316182</v>
       </c>
       <c r="D10">
         <v>0.8313358814012897</v>
       </c>
       <c r="E10">
-        <v>0.8350477520355675</v>
+        <v>0.8350477520355672</v>
       </c>
       <c r="F10">
-        <v>0.7993779930716589</v>
+        <v>0.7993779930716588</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8453569842219512</v>
+        <v>0.8453569842219509</v>
       </c>
       <c r="K10">
-        <v>0.8496044285050668</v>
+        <v>0.8496044285050669</v>
       </c>
       <c r="L10">
-        <v>0.8532071526932107</v>
+        <v>0.8532071526932106</v>
       </c>
       <c r="M10">
-        <v>0.8186446720750404</v>
+        <v>0.8186446720750403</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7835739096374794</v>
+        <v>0.7835739096374804</v>
       </c>
       <c r="D11">
-        <v>0.8110240639516324</v>
+        <v>0.8110240639516336</v>
       </c>
       <c r="E11">
-        <v>0.8150568066620136</v>
+        <v>0.8150568066620146</v>
       </c>
       <c r="F11">
-        <v>0.7748783634040629</v>
+        <v>0.7748783634040639</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8258647358688387</v>
+        <v>0.8258647358688396</v>
       </c>
       <c r="K11">
-        <v>0.830675155610818</v>
+        <v>0.8306751556108192</v>
       </c>
       <c r="L11">
-        <v>0.8345750291196242</v>
+        <v>0.834575029119625</v>
       </c>
       <c r="M11">
-        <v>0.7958076903870609</v>
+        <v>0.7958076903870618</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7737882836886663</v>
+        <v>0.773788283688666</v>
       </c>
       <c r="D12">
         <v>0.8024307303000618</v>
       </c>
       <c r="E12">
-        <v>0.806600454397002</v>
+        <v>0.8066004543970018</v>
       </c>
       <c r="F12">
         <v>0.7644717457084832</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8176057782814028</v>
+        <v>0.8176057782814027</v>
       </c>
       <c r="K12">
-        <v>0.8226591329420625</v>
+        <v>0.8226591329420623</v>
       </c>
       <c r="L12">
-        <v>0.8266849833546795</v>
+        <v>0.8266849833546793</v>
       </c>
       <c r="M12">
-        <v>0.7861125870155815</v>
+        <v>0.7861125870155813</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7759573220384671</v>
+        <v>0.7759573220384677</v>
       </c>
       <c r="D13">
-        <v>0.8043339734880743</v>
+        <v>0.8043339734880748</v>
       </c>
       <c r="E13">
-        <v>0.8084732916235013</v>
+        <v>0.8084732916235019</v>
       </c>
       <c r="F13">
-        <v>0.7667789103261078</v>
+        <v>0.7667789103261082</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8194356018360371</v>
+        <v>0.8194356018360378</v>
       </c>
       <c r="K13">
-        <v>0.8244348925333563</v>
+        <v>0.824434892533357</v>
       </c>
       <c r="L13">
-        <v>0.8284328259691826</v>
+        <v>0.828432825969183</v>
       </c>
       <c r="M13">
-        <v>0.7882616821621266</v>
+        <v>0.7882616821621268</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7827949160073047</v>
+        <v>0.7827949160073021</v>
       </c>
       <c r="D14">
-        <v>0.8103393470881106</v>
+        <v>0.8103393470881084</v>
       </c>
       <c r="E14">
-        <v>0.8143829761917758</v>
+        <v>0.8143829761917736</v>
       </c>
       <c r="F14">
-        <v>0.7740501310779504</v>
+        <v>0.7740501310779477</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8252069327170913</v>
+        <v>0.8252069327170891</v>
       </c>
       <c r="K14">
-        <v>0.8300366008526318</v>
+        <v>0.8300366008526298</v>
       </c>
       <c r="L14">
-        <v>0.8339465057112254</v>
+        <v>0.8339465057112233</v>
       </c>
       <c r="M14">
-        <v>0.7950359523876223</v>
+        <v>0.7950359523876199</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.786821676622465</v>
+        <v>0.7868216766224656</v>
       </c>
       <c r="D15">
-        <v>0.8138799344424898</v>
+        <v>0.8138799344424901</v>
       </c>
       <c r="E15">
-        <v>0.8178673226864317</v>
+        <v>0.8178673226864321</v>
       </c>
       <c r="F15">
-        <v>0.7783310780677126</v>
+        <v>0.778331078067713</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8286078489401393</v>
+        <v>0.8286078489401396</v>
       </c>
       <c r="K15">
-        <v>0.8333381836967889</v>
+        <v>0.8333381836967891</v>
       </c>
       <c r="L15">
-        <v>0.837196229042835</v>
+        <v>0.8371962290428354</v>
       </c>
       <c r="M15">
-        <v>0.7990251224314459</v>
+        <v>0.7990251224314461</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,13 +866,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8080252512266645</v>
+        <v>0.8080252512266642</v>
       </c>
       <c r="D16">
         <v>0.8325690123769216</v>
       </c>
       <c r="E16">
-        <v>0.8362615237072123</v>
+        <v>0.8362615237072121</v>
       </c>
       <c r="F16">
         <v>0.8008613388387363</v>
@@ -881,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8465390409321484</v>
+        <v>0.846539040932148</v>
       </c>
       <c r="K16">
         <v>0.8507527818160467</v>
       </c>
       <c r="L16">
-        <v>0.8543374880846134</v>
+        <v>0.8543374880846135</v>
       </c>
       <c r="M16">
-        <v>0.820027789050072</v>
+        <v>0.8200277890500719</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8198103383217963</v>
+        <v>0.8198103383217979</v>
       </c>
       <c r="D17">
-        <v>0.8429875462911469</v>
+        <v>0.8429875462911484</v>
       </c>
       <c r="E17">
-        <v>0.8465169914478677</v>
+        <v>0.8465169914478695</v>
       </c>
       <c r="F17">
-        <v>0.8133773878399529</v>
+        <v>0.8133773878399551</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8565200116568304</v>
+        <v>0.856520011656832</v>
       </c>
       <c r="K17">
-        <v>0.8604510117469917</v>
+        <v>0.8604510117469933</v>
       </c>
       <c r="L17">
-        <v>0.8638835551776988</v>
+        <v>0.8638835551777004</v>
       </c>
       <c r="M17">
-        <v>0.8316995430595527</v>
+        <v>0.8316995430595546</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8262638448278955</v>
+        <v>0.8262638448278937</v>
       </c>
       <c r="D18">
-        <v>0.8487014811161211</v>
+        <v>0.8487014811161195</v>
       </c>
       <c r="E18">
-        <v>0.8521418486630108</v>
+        <v>0.8521418486630093</v>
       </c>
       <c r="F18">
-        <v>0.8202298842138445</v>
+        <v>0.8202298842138431</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8619893555517391</v>
+        <v>0.8619893555517372</v>
       </c>
       <c r="K18">
-        <v>0.8657667574418447</v>
+        <v>0.8657667574418435</v>
       </c>
       <c r="L18">
-        <v>0.8691158852369969</v>
+        <v>0.8691158852369953</v>
       </c>
       <c r="M18">
-        <v>0.8380906197089438</v>
+        <v>0.8380906197089427</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8284016022503099</v>
+        <v>0.828401602250312</v>
       </c>
       <c r="D19">
-        <v>0.8505955675506868</v>
+        <v>0.8505955675506884</v>
       </c>
       <c r="E19">
-        <v>0.8540064586433646</v>
+        <v>0.8540064586433666</v>
       </c>
       <c r="F19">
-        <v>0.8224996599360902</v>
+        <v>0.8224996599360926</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.863801637158765</v>
+        <v>0.863801637158767</v>
       </c>
       <c r="K19">
-        <v>0.8675283432149692</v>
+        <v>0.8675283432149712</v>
       </c>
       <c r="L19">
-        <v>0.8708498230798847</v>
+        <v>0.8708498230798863</v>
       </c>
       <c r="M19">
-        <v>0.8402076488304888</v>
+        <v>0.8402076488304909</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8185916094704807</v>
+        <v>0.8185916094704809</v>
       </c>
       <c r="D20">
-        <v>0.841909165774254</v>
+        <v>0.8419091657742542</v>
       </c>
       <c r="E20">
-        <v>0.8454554495210194</v>
+        <v>0.8454554495210199</v>
       </c>
       <c r="F20">
-        <v>0.8120832223243343</v>
+        <v>0.8120832223243346</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8554874244929481</v>
+        <v>0.8554874244929483</v>
       </c>
       <c r="K20">
-        <v>0.8594475269490349</v>
+        <v>0.8594475269490351</v>
       </c>
       <c r="L20">
-        <v>0.8628958154990444</v>
+        <v>0.8628958154990448</v>
       </c>
       <c r="M20">
-        <v>0.8304925772222168</v>
+        <v>0.8304925772222173</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7808220428727805</v>
+        <v>0.780822042872779</v>
       </c>
       <c r="D21">
-        <v>0.8086057253367752</v>
+        <v>0.8086057253367739</v>
       </c>
       <c r="E21">
-        <v>0.8126769390685548</v>
+        <v>0.8126769390685536</v>
       </c>
       <c r="F21">
-        <v>0.7719524110780235</v>
+        <v>0.7719524110780219</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8235412441834655</v>
+        <v>0.8235412441834643</v>
       </c>
       <c r="K21">
-        <v>0.8284197299237767</v>
+        <v>0.8284197299237755</v>
       </c>
       <c r="L21">
-        <v>0.8323550378300503</v>
+        <v>0.832355037830049</v>
       </c>
       <c r="M21">
-        <v>0.7930814181910198</v>
+        <v>0.7930814181910183</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7490758713656008</v>
+        <v>0.7490758713656016</v>
       </c>
       <c r="D22">
-        <v>0.7808113016313027</v>
+        <v>0.7808113016313035</v>
       </c>
       <c r="E22">
-        <v>0.7853292906124971</v>
+        <v>0.7853292906124986</v>
       </c>
       <c r="F22">
-        <v>0.7381623166824697</v>
+        <v>0.7381623166824708</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7967944883443145</v>
+        <v>0.7967944883443154</v>
       </c>
       <c r="K22">
-        <v>0.8024730443714271</v>
+        <v>0.802473044371428</v>
       </c>
       <c r="L22">
-        <v>0.8068167215254599</v>
+        <v>0.8068167215254609</v>
       </c>
       <c r="M22">
-        <v>0.7616213417778367</v>
+        <v>0.7616213417778377</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7670545184842716</v>
+        <v>0.7670545184842686</v>
       </c>
       <c r="D23">
-        <v>0.7965277862757888</v>
+        <v>0.7965277862757858</v>
       </c>
       <c r="E23">
-        <v>0.8007920672731035</v>
+        <v>0.800792067273101</v>
       </c>
       <c r="F23">
-        <v>0.7573072587368747</v>
+        <v>0.7573072587368715</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8119282250252557</v>
+        <v>0.8119282250252531</v>
       </c>
       <c r="K23">
-        <v>0.8171502282770248</v>
+        <v>0.8171502282770219</v>
       </c>
       <c r="L23">
-        <v>0.8212627245329279</v>
+        <v>0.8212627245329255</v>
       </c>
       <c r="M23">
-        <v>0.7794402470016587</v>
+        <v>0.7794402470016557</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8191435717192028</v>
+        <v>0.8191435717192006</v>
       </c>
       <c r="D24">
-        <v>0.8423975370750928</v>
+        <v>0.8423975370750911</v>
       </c>
       <c r="E24">
-        <v>0.8459361939548813</v>
+        <v>0.8459361939548796</v>
       </c>
       <c r="F24">
-        <v>0.8126693536738563</v>
+        <v>0.8126693536738541</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8559550715747281</v>
+        <v>0.8559550715747263</v>
       </c>
       <c r="K24">
-        <v>0.8599019897492985</v>
+        <v>0.8599019897492967</v>
       </c>
       <c r="L24">
-        <v>0.8633431476264434</v>
+        <v>0.8633431476264417</v>
       </c>
       <c r="M24">
-        <v>0.8310392131196905</v>
+        <v>0.8310392131196885</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8624421592823706</v>
+        <v>0.8624421592823709</v>
       </c>
       <c r="D25">
-        <v>0.8808375898768054</v>
+        <v>0.8808375898768056</v>
       </c>
       <c r="E25">
         <v>0.8837807293648244</v>
       </c>
       <c r="F25">
-        <v>0.8586394014415784</v>
+        <v>0.8586394014415785</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8926873169433194</v>
+        <v>0.8926873169433197</v>
       </c>
       <c r="K25">
-        <v>0.8956180860639916</v>
+        <v>0.895618086063992</v>
       </c>
       <c r="L25">
         <v>0.8984979283426513</v>

--- a/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
@@ -418,31 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8903533077305622</v>
+        <v>0.8905296344964551</v>
       </c>
       <c r="D2">
-        <v>0.9057351808863724</v>
+        <v>0.9058995772566737</v>
       </c>
       <c r="E2">
-        <v>0.9082959523859622</v>
+        <v>0.9084545190955111</v>
       </c>
       <c r="F2">
-        <v>0.8882821794640496</v>
+        <v>0.8884574328842431</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9163933515016353</v>
+        <v>0.9165623819282019</v>
       </c>
       <c r="K2">
-        <v>0.9186852259267747</v>
+        <v>0.9188466717586341</v>
       </c>
       <c r="L2">
-        <v>0.9212001948480786</v>
+        <v>0.9213559364152202</v>
       </c>
       <c r="M2">
-        <v>0.901553584971671</v>
+        <v>0.9017255294630399</v>
+      </c>
+      <c r="N2">
+        <v>0.9414783435642137</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.908204666269396</v>
+        <v>0.9083493966395523</v>
       </c>
       <c r="D3">
-        <v>0.9216991745556143</v>
+        <v>0.9218345184419063</v>
       </c>
       <c r="E3">
-        <v>0.9240151752762829</v>
+        <v>0.9241456054948182</v>
       </c>
       <c r="F3">
-        <v>0.9072548551282175</v>
+        <v>0.907398253311851</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9315542421859727</v>
+        <v>0.9316938260191674</v>
       </c>
       <c r="K3">
-        <v>0.9334427021987525</v>
+        <v>0.9335759181411412</v>
       </c>
       <c r="L3">
-        <v>0.9357223994881627</v>
+        <v>0.9358507921265479</v>
       </c>
       <c r="M3">
-        <v>0.919230174721884</v>
+        <v>0.9193712251364117</v>
+      </c>
+      <c r="N3">
+        <v>0.9523950950817915</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9189056815779993</v>
+        <v>0.9190329209237685</v>
       </c>
       <c r="D4">
-        <v>0.9312817778987337</v>
+        <v>0.9314009646123989</v>
       </c>
       <c r="E4">
-        <v>0.9334507269632136</v>
+        <v>0.9335655305732155</v>
       </c>
       <c r="F4">
-        <v>0.9186357515832533</v>
+        <v>0.9187615960601087</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9406387661233316</v>
+        <v>0.9407619031460749</v>
       </c>
       <c r="K4">
-        <v>0.9422869991904034</v>
+        <v>0.9424044664653255</v>
       </c>
       <c r="L4">
-        <v>0.944424745065517</v>
+        <v>0.9445379021899443</v>
       </c>
       <c r="M4">
-        <v>0.9298266341270232</v>
+        <v>0.9299505990086286</v>
+      </c>
+      <c r="N4">
+        <v>0.9589313449089699</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9232297491879008</v>
+        <v>0.9233501915030101</v>
       </c>
       <c r="D5">
-        <v>0.9351564245327132</v>
+        <v>0.9352693183434891</v>
       </c>
       <c r="E5">
-        <v>0.9372658497901748</v>
+        <v>0.9373745716544697</v>
       </c>
       <c r="F5">
-        <v>0.9232365275449639</v>
+        <v>0.9233555669493642</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9443084010831283</v>
+        <v>0.9444251175117405</v>
       </c>
       <c r="K5">
-        <v>0.9458598584961098</v>
+        <v>0.9459711819017762</v>
       </c>
       <c r="L5">
-        <v>0.947940019491199</v>
+        <v>0.948047237546892</v>
       </c>
       <c r="M5">
-        <v>0.9341085090640415</v>
+        <v>0.9342258380089217</v>
+      </c>
+      <c r="N5">
+        <v>0.9615700095184243</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9239462477258018</v>
+        <v>0.9240655779392885</v>
       </c>
       <c r="D6">
-        <v>0.935798586540562</v>
+        <v>0.9359104499825482</v>
       </c>
       <c r="E6">
-        <v>0.9378981419704077</v>
+        <v>0.9380058682923119</v>
       </c>
       <c r="F6">
-        <v>0.9239989965599671</v>
+        <v>0.924116923437131</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9449163781008718</v>
+        <v>0.9450320424254565</v>
       </c>
       <c r="K6">
-        <v>0.9464518149513904</v>
+        <v>0.9465621318377504</v>
       </c>
       <c r="L6">
-        <v>0.9485224207283692</v>
+        <v>0.9486286660735971</v>
       </c>
       <c r="M6">
-        <v>0.9348180196495455</v>
+        <v>0.9349342630467509</v>
+      </c>
+      <c r="N6">
+        <v>0.9620070732754683</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9189641132758137</v>
+        <v>0.9190912597760962</v>
       </c>
       <c r="D7">
-        <v>0.9313341272123623</v>
+        <v>0.931453228020063</v>
       </c>
       <c r="E7">
-        <v>0.9335022723656706</v>
+        <v>0.9336169929346793</v>
       </c>
       <c r="F7">
-        <v>0.9186979144213349</v>
+        <v>0.9188236658803215</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9406883597516229</v>
+        <v>0.9408114091830171</v>
       </c>
       <c r="K7">
-        <v>0.942335284001763</v>
+        <v>0.9424526674439433</v>
       </c>
       <c r="L7">
-        <v>0.9444722526294267</v>
+        <v>0.9445853286976765</v>
       </c>
       <c r="M7">
-        <v>0.9298844954415135</v>
+        <v>0.9300083696644329</v>
+      </c>
+      <c r="N7">
+        <v>0.95896701226345</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8965821578109471</v>
+        <v>0.896747085047635</v>
       </c>
       <c r="D8">
-        <v>0.9113022136966883</v>
+        <v>0.9114561482731239</v>
       </c>
       <c r="E8">
-        <v>0.9137776299176792</v>
+        <v>0.9139260594120995</v>
       </c>
       <c r="F8">
-        <v>0.8949007118048848</v>
+        <v>0.8950644514371839</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9216839655569955</v>
+        <v>0.9218424099266014</v>
       </c>
       <c r="K8">
-        <v>0.9238346647263769</v>
+        <v>0.9239859574652346</v>
       </c>
       <c r="L8">
-        <v>0.9262677370501476</v>
+        <v>0.9264136369579239</v>
       </c>
       <c r="M8">
-        <v>0.9077214139810639</v>
+        <v>0.9078822081016488</v>
+      </c>
+      <c r="N8">
+        <v>0.9452887555598098</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8487428849517058</v>
+        <v>0.8490087003668727</v>
       </c>
       <c r="D9">
-        <v>0.868649324111588</v>
+        <v>0.868895098361943</v>
       </c>
       <c r="E9">
-        <v>0.871780397634022</v>
+        <v>0.8720179850888197</v>
       </c>
       <c r="F9">
-        <v>0.8440951854647462</v>
+        <v>0.8443615579896171</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8810572313330606</v>
+        <v>0.8813080430696288</v>
       </c>
       <c r="K9">
-        <v>0.8843058796298998</v>
+        <v>0.8845458868340331</v>
       </c>
       <c r="L9">
-        <v>0.8873638084150379</v>
+        <v>0.8875958742931297</v>
       </c>
       <c r="M9">
-        <v>0.8603507887174557</v>
+        <v>0.8606104099203088</v>
+      </c>
+      <c r="N9">
+        <v>0.9160290902789224</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.806628772316182</v>
+        <v>0.8070217976844585</v>
       </c>
       <c r="D10">
-        <v>0.8313358814012897</v>
+        <v>0.8316953631368696</v>
       </c>
       <c r="E10">
-        <v>0.8350477520355672</v>
+        <v>0.8353961152339092</v>
       </c>
       <c r="F10">
-        <v>0.7993779930716588</v>
+        <v>0.7997757163241019</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8453569842219509</v>
+        <v>0.8457208800377075</v>
       </c>
       <c r="K10">
-        <v>0.8496044285050669</v>
+        <v>0.8499532812547019</v>
       </c>
       <c r="L10">
-        <v>0.8532071526932106</v>
+        <v>0.8535453406657513</v>
       </c>
       <c r="M10">
-        <v>0.8186446720750403</v>
+        <v>0.8190292914456938</v>
+      </c>
+      <c r="N10">
+        <v>0.8903762109151974</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7835739096374804</v>
+        <v>0.7840638999567441</v>
       </c>
       <c r="D11">
-        <v>0.8110240639516336</v>
+        <v>0.8114690308211581</v>
       </c>
       <c r="E11">
-        <v>0.8150568066620146</v>
+        <v>0.8154886345663178</v>
       </c>
       <c r="F11">
-        <v>0.7748783634040639</v>
+        <v>0.7753772835445601</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8258647358688396</v>
+        <v>0.8263130868503564</v>
       </c>
       <c r="K11">
-        <v>0.8306751556108192</v>
+        <v>0.8311053717585573</v>
       </c>
       <c r="L11">
-        <v>0.834575029119625</v>
+        <v>0.8349927374483866</v>
       </c>
       <c r="M11">
-        <v>0.7958076903870618</v>
+        <v>0.7962878225269823</v>
+      </c>
+      <c r="N11">
+        <v>0.8764232135106931</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.773788283688666</v>
+        <v>0.7743285550586145</v>
       </c>
       <c r="D12">
-        <v>0.8024307303000618</v>
+        <v>0.8029197155908365</v>
       </c>
       <c r="E12">
-        <v>0.8066004543970018</v>
+        <v>0.8070753043273892</v>
       </c>
       <c r="F12">
-        <v>0.7644717457084832</v>
+        <v>0.7650234256877306</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8176057782814027</v>
+        <v>0.8180974940989368</v>
       </c>
       <c r="K12">
-        <v>0.8226591329420623</v>
+        <v>0.8231311380411716</v>
       </c>
       <c r="L12">
-        <v>0.8266849833546793</v>
+        <v>0.8271435803837043</v>
       </c>
       <c r="M12">
-        <v>0.7861125870155813</v>
+        <v>0.7866423148339157</v>
+      </c>
+      <c r="N12">
+        <v>0.8705274513015521</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7759573220384677</v>
+        <v>0.7764858735882721</v>
       </c>
       <c r="D13">
-        <v>0.8043339734880748</v>
+        <v>0.8048127152191488</v>
       </c>
       <c r="E13">
-        <v>0.8084732916235019</v>
+        <v>0.8089381275807667</v>
       </c>
       <c r="F13">
-        <v>0.7667789103261082</v>
+        <v>0.7673182773617057</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8194356018360378</v>
+        <v>0.8199172323004806</v>
       </c>
       <c r="K13">
-        <v>0.824434892533357</v>
+        <v>0.8248971783066623</v>
       </c>
       <c r="L13">
-        <v>0.828432825969183</v>
+        <v>0.8288819106426653</v>
       </c>
       <c r="M13">
-        <v>0.7882616821621268</v>
+        <v>0.7887798460987326</v>
+      </c>
+      <c r="N13">
+        <v>0.8718327436269719</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7827949160073021</v>
+        <v>0.7832886765734974</v>
       </c>
       <c r="D14">
-        <v>0.8103393470881084</v>
+        <v>0.8107876212433471</v>
       </c>
       <c r="E14">
-        <v>0.8143829761917736</v>
+        <v>0.8148180355950351</v>
       </c>
       <c r="F14">
-        <v>0.7740501310779477</v>
+        <v>0.7745530011926548</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8252069327170891</v>
+        <v>0.8256585443752824</v>
       </c>
       <c r="K14">
-        <v>0.8300366008526298</v>
+        <v>0.8304699589794297</v>
       </c>
       <c r="L14">
-        <v>0.8339465057112233</v>
+        <v>0.8343672873572203</v>
       </c>
       <c r="M14">
-        <v>0.7950359523876199</v>
+        <v>0.7955198018733153</v>
+      </c>
+      <c r="N14">
+        <v>0.8759532405681245</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7868216766224656</v>
+        <v>0.7872963429257985</v>
       </c>
       <c r="D15">
-        <v>0.8138799344424901</v>
+        <v>0.8143114471969873</v>
       </c>
       <c r="E15">
-        <v>0.8178673226864321</v>
+        <v>0.818286006438642</v>
       </c>
       <c r="F15">
-        <v>0.778331078067713</v>
+        <v>0.7788139545482073</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8286078489401396</v>
+        <v>0.8290429308270801</v>
       </c>
       <c r="K15">
-        <v>0.8333381836967891</v>
+        <v>0.8337556141890308</v>
       </c>
       <c r="L15">
-        <v>0.8371962290428354</v>
+        <v>0.8376014328746808</v>
       </c>
       <c r="M15">
-        <v>0.7990251224314461</v>
+        <v>0.7994901481863549</v>
+      </c>
+      <c r="N15">
+        <v>0.8783837426539959</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,319 +908,349 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8080252512266642</v>
+        <v>0.8084131751795283</v>
       </c>
       <c r="D16">
-        <v>0.8325690123769216</v>
+        <v>0.8329239714553672</v>
       </c>
       <c r="E16">
-        <v>0.8362615237072121</v>
+        <v>0.8366054748713975</v>
       </c>
       <c r="F16">
-        <v>0.8008613388387363</v>
+        <v>0.8012537609229069</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.846539040932148</v>
+        <v>0.8468984576309579</v>
       </c>
       <c r="K16">
-        <v>0.8507527818160467</v>
+        <v>0.8510973206499153</v>
       </c>
       <c r="L16">
-        <v>0.8543374880846135</v>
+        <v>0.8546714637973095</v>
       </c>
       <c r="M16">
-        <v>0.8200277890500719</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8204073886004185</v>
+      </c>
+      <c r="N16">
+        <v>0.8912238279468838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8198103383217979</v>
+        <v>0.8201580137348341</v>
       </c>
       <c r="D17">
-        <v>0.8429875462911484</v>
+        <v>0.8433067219838366</v>
       </c>
       <c r="E17">
-        <v>0.8465169914478695</v>
+        <v>0.8468260501202097</v>
       </c>
       <c r="F17">
-        <v>0.8133773878399551</v>
+        <v>0.813728076649039</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.856520011656832</v>
+        <v>0.8568439416397502</v>
       </c>
       <c r="K17">
-        <v>0.8604510117469933</v>
+        <v>0.8607613789104286</v>
       </c>
       <c r="L17">
-        <v>0.8638835551777004</v>
+        <v>0.8641841809452264</v>
       </c>
       <c r="M17">
-        <v>0.8316995430595546</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8320395576029553</v>
+      </c>
+      <c r="N17">
+        <v>0.8983865033094786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8262638448278937</v>
+        <v>0.8265913793127559</v>
       </c>
       <c r="D18">
-        <v>0.8487014811161195</v>
+        <v>0.8490026787022218</v>
       </c>
       <c r="E18">
-        <v>0.8521418486630093</v>
+        <v>0.8524333882134359</v>
       </c>
       <c r="F18">
-        <v>0.8202298842138431</v>
+        <v>0.8205597537286587</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8619893555517372</v>
+        <v>0.8622954210310314</v>
       </c>
       <c r="K18">
-        <v>0.8657667574418435</v>
+        <v>0.8660599270421678</v>
       </c>
       <c r="L18">
-        <v>0.8691158852369953</v>
+        <v>0.8693997389746124</v>
       </c>
       <c r="M18">
-        <v>0.8380906197089427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8384108390675306</v>
+      </c>
+      <c r="N18">
+        <v>0.9023153301319369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.828401602250312</v>
+        <v>0.8287227290890102</v>
       </c>
       <c r="D19">
-        <v>0.8505955675506884</v>
+        <v>0.8508910349312261</v>
       </c>
       <c r="E19">
-        <v>0.8540064586433666</v>
+        <v>0.8542924160232928</v>
       </c>
       <c r="F19">
-        <v>0.8224996599360926</v>
+        <v>0.8228229155995173</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.863801637158767</v>
+        <v>0.8641020031261213</v>
       </c>
       <c r="K19">
-        <v>0.8675283432149712</v>
+        <v>0.867816026903458</v>
       </c>
       <c r="L19">
-        <v>0.8708498230798863</v>
+        <v>0.8711283284778505</v>
       </c>
       <c r="M19">
-        <v>0.8402076488304909</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8405215725333021</v>
+      </c>
+      <c r="N19">
+        <v>0.90361769100225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8185916094704809</v>
+        <v>0.8189432303530058</v>
       </c>
       <c r="D20">
-        <v>0.8419091657742542</v>
+        <v>0.8422318574721143</v>
       </c>
       <c r="E20">
-        <v>0.8454554495210199</v>
+        <v>0.8457679353655922</v>
       </c>
       <c r="F20">
-        <v>0.8120832223243346</v>
+        <v>0.8124379947088944</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8554874244929483</v>
+        <v>0.8558148453370208</v>
       </c>
       <c r="K20">
-        <v>0.8594475269490351</v>
+        <v>0.8597612550691143</v>
       </c>
       <c r="L20">
-        <v>0.8628958154990448</v>
+        <v>0.8631997200389077</v>
       </c>
       <c r="M20">
-        <v>0.8304925772222173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8308364706003698</v>
+      </c>
+      <c r="N20">
+        <v>0.8976450464328914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.780822042872779</v>
+        <v>0.7813255228183256</v>
       </c>
       <c r="D21">
-        <v>0.8086057253367739</v>
+        <v>0.8090625202606221</v>
       </c>
       <c r="E21">
-        <v>0.8126769390685536</v>
+        <v>0.8131203247051492</v>
       </c>
       <c r="F21">
-        <v>0.7719524110780219</v>
+        <v>0.7724654686335122</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8235412441834643</v>
+        <v>0.8240012545615771</v>
       </c>
       <c r="K21">
-        <v>0.8284197299237755</v>
+        <v>0.828861181202262</v>
       </c>
       <c r="L21">
-        <v>0.832355037830049</v>
+        <v>0.8327837365263423</v>
       </c>
       <c r="M21">
-        <v>0.7930814181910183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7935748518342072</v>
+      </c>
+      <c r="N21">
+        <v>0.8747634692002768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7490758713656016</v>
+        <v>0.7497800605133367</v>
       </c>
       <c r="D22">
-        <v>0.7808113016313035</v>
+        <v>0.7814426928629965</v>
       </c>
       <c r="E22">
-        <v>0.7853292906124986</v>
+        <v>0.7859434707650227</v>
       </c>
       <c r="F22">
-        <v>0.7381623166824708</v>
+        <v>0.7388870293198448</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7967944883443154</v>
+        <v>0.7974261201989881</v>
       </c>
       <c r="K22">
-        <v>0.802473044371428</v>
+        <v>0.8030799042335748</v>
       </c>
       <c r="L22">
-        <v>0.8068167215254609</v>
+        <v>0.8074074237342678</v>
       </c>
       <c r="M22">
-        <v>0.7616213417778377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7623130211460413</v>
+      </c>
+      <c r="N22">
+        <v>0.8557267116179568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7670545184842686</v>
+        <v>0.7676335299924455</v>
       </c>
       <c r="D23">
-        <v>0.7965277862757858</v>
+        <v>0.7970505662523211</v>
       </c>
       <c r="E23">
-        <v>0.800792067273101</v>
+        <v>0.801299963403337</v>
       </c>
       <c r="F23">
-        <v>0.7573072587368715</v>
+        <v>0.7578997009333094</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8119282250252531</v>
+        <v>0.8124531903550499</v>
       </c>
       <c r="K23">
-        <v>0.8171502282770219</v>
+        <v>0.8176542777543575</v>
       </c>
       <c r="L23">
-        <v>0.8212627245329255</v>
+        <v>0.8217526929983159</v>
       </c>
       <c r="M23">
-        <v>0.7794402470016557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7800082151565353</v>
+      </c>
+      <c r="N23">
+        <v>0.8664811195548738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8191435717192006</v>
+        <v>0.8194933998899351</v>
       </c>
       <c r="D24">
-        <v>0.8423975370750911</v>
+        <v>0.8427186314279206</v>
       </c>
       <c r="E24">
-        <v>0.8459361939548796</v>
+        <v>0.8462471227751299</v>
       </c>
       <c r="F24">
-        <v>0.8126693536738541</v>
+        <v>0.8130222703874831</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8559550715747263</v>
+        <v>0.8562809066114974</v>
       </c>
       <c r="K24">
-        <v>0.8599019897492967</v>
+        <v>0.8602141910582048</v>
       </c>
       <c r="L24">
-        <v>0.8633431476264417</v>
+        <v>0.8636455626511295</v>
       </c>
       <c r="M24">
-        <v>0.8310392131196885</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8313813440191776</v>
+      </c>
+      <c r="N24">
+        <v>0.8979808321038872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8624421592823709</v>
+        <v>0.8626755483777457</v>
       </c>
       <c r="D25">
-        <v>0.8808375898768056</v>
+        <v>0.8810540250815424</v>
       </c>
       <c r="E25">
-        <v>0.8837807293648244</v>
+        <v>0.883989796834997</v>
       </c>
       <c r="F25">
-        <v>0.8586394014415785</v>
+        <v>0.8588726158072973</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8926873169433197</v>
+        <v>0.892908747207967</v>
       </c>
       <c r="K25">
-        <v>0.895618086063992</v>
+        <v>0.8958298473477639</v>
       </c>
       <c r="L25">
-        <v>0.8984979283426513</v>
+        <v>0.8987025207139272</v>
       </c>
       <c r="M25">
-        <v>0.8739160101065626</v>
+        <v>0.8741438340376261</v>
+      </c>
+      <c r="N25">
+        <v>0.9244025477872225</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
@@ -417,840 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.8905296344964551</v>
+        <v>0.9490068917719711</v>
       </c>
       <c r="D2">
-        <v>0.9058995772566737</v>
+        <v>0.9642724113306539</v>
       </c>
       <c r="E2">
-        <v>0.9084545190955111</v>
+        <v>0.9665424287379707</v>
       </c>
       <c r="F2">
-        <v>0.8884574328842431</v>
+        <v>0.9708061248294798</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.035803183633953</v>
+      </c>
       <c r="J2">
-        <v>0.9165623819282019</v>
+        <v>0.9728276479947937</v>
       </c>
       <c r="K2">
-        <v>0.9188466717586341</v>
+        <v>0.9762529965086826</v>
       </c>
       <c r="L2">
-        <v>0.9213559364152202</v>
+        <v>0.9784884345232946</v>
       </c>
       <c r="M2">
-        <v>0.9017255294630399</v>
+        <v>0.9826877377565962</v>
       </c>
       <c r="N2">
-        <v>0.9414783435642137</v>
+        <v>0.9742091748398372</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.9083493966395523</v>
+        <v>0.9847065254427011</v>
       </c>
       <c r="D3">
-        <v>0.9218345184419063</v>
+        <v>0.9989832021974421</v>
       </c>
       <c r="E3">
-        <v>0.9241456054948182</v>
+        <v>0.9986119948259158</v>
       </c>
       <c r="F3">
-        <v>0.907398253311851</v>
+        <v>1.005296565683306</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.042038905353819</v>
+      </c>
       <c r="J3">
-        <v>0.9316938260191674</v>
+        <v>1.005622970077033</v>
       </c>
       <c r="K3">
-        <v>0.9335759181411412</v>
+        <v>1.009629109694954</v>
       </c>
       <c r="L3">
-        <v>0.9358507921265479</v>
+        <v>1.009262666298518</v>
       </c>
       <c r="M3">
-        <v>0.9193712251364117</v>
+        <v>1.015862121586639</v>
       </c>
       <c r="N3">
-        <v>0.9523950950817915</v>
+        <v>1.007051070041109</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9190329209237685</v>
+        <v>1.004670332982621</v>
       </c>
       <c r="D4">
-        <v>0.9314009646123989</v>
+        <v>1.018412762082744</v>
       </c>
       <c r="E4">
-        <v>0.9335655305732155</v>
+        <v>1.016568229332427</v>
       </c>
       <c r="F4">
-        <v>0.9187615960601087</v>
+        <v>1.02460947014998</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.045508816750817</v>
+      </c>
       <c r="J4">
-        <v>0.9407619031460749</v>
+        <v>1.023955320988734</v>
       </c>
       <c r="K4">
-        <v>0.9424044664653255</v>
+        <v>1.028293926546307</v>
       </c>
       <c r="L4">
-        <v>0.9445379021899443</v>
+        <v>1.026470719817873</v>
       </c>
       <c r="M4">
-        <v>0.9299505990086286</v>
+        <v>1.034419683329915</v>
       </c>
       <c r="N4">
-        <v>0.9589313449089699</v>
+        <v>1.025409454993854</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9233501915030101</v>
+        <v>1.01250049839855</v>
       </c>
       <c r="D5">
-        <v>0.9352693183434891</v>
+        <v>1.026036708039143</v>
       </c>
       <c r="E5">
-        <v>0.9373745716544697</v>
+        <v>1.02361492380371</v>
       </c>
       <c r="F5">
-        <v>0.9233555669493642</v>
+        <v>1.032189105002982</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.046863293787879</v>
+      </c>
       <c r="J5">
-        <v>0.9444251175117405</v>
+        <v>1.031142987256379</v>
       </c>
       <c r="K5">
-        <v>0.9459711819017762</v>
+        <v>1.035613744337565</v>
       </c>
       <c r="L5">
-        <v>0.948047237546892</v>
+        <v>1.033218782096039</v>
       </c>
       <c r="M5">
-        <v>0.9342258380089217</v>
+        <v>1.041698696387718</v>
       </c>
       <c r="N5">
-        <v>0.9615700095184243</v>
+        <v>1.032607328572037</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9240655779392885</v>
+        <v>1.013786141974054</v>
       </c>
       <c r="D6">
-        <v>0.9359104499825482</v>
+        <v>1.027288663002828</v>
       </c>
       <c r="E6">
-        <v>0.9380058682923119</v>
+        <v>1.024772129626076</v>
       </c>
       <c r="F6">
-        <v>0.924116923437131</v>
+        <v>1.033433866644041</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.047085251805639</v>
+      </c>
       <c r="J6">
-        <v>0.9450320424254565</v>
+        <v>1.032322966427331</v>
       </c>
       <c r="K6">
-        <v>0.9465621318377504</v>
+        <v>1.036815522851768</v>
       </c>
       <c r="L6">
-        <v>0.9486286660735971</v>
+        <v>1.034326661462765</v>
       </c>
       <c r="M6">
-        <v>0.9349342630467509</v>
+        <v>1.042893847985965</v>
       </c>
       <c r="N6">
-        <v>0.9620070732754683</v>
+        <v>1.033788983448757</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9190912597760962</v>
+        <v>1.004776985425952</v>
       </c>
       <c r="D7">
-        <v>0.931453228020063</v>
+        <v>1.018516593491455</v>
       </c>
       <c r="E7">
-        <v>0.9336169929346793</v>
+        <v>1.016664195969347</v>
       </c>
       <c r="F7">
-        <v>0.9188236658803215</v>
+        <v>1.02471269233587</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.045527294335608</v>
+      </c>
       <c r="J7">
-        <v>0.9408114091830171</v>
+        <v>1.024053233513972</v>
       </c>
       <c r="K7">
-        <v>0.9424526674439433</v>
+        <v>1.028393632109363</v>
       </c>
       <c r="L7">
-        <v>0.9445853286976765</v>
+        <v>1.026562639181513</v>
       </c>
       <c r="M7">
-        <v>0.9300083696644329</v>
+        <v>1.034518828092619</v>
       </c>
       <c r="N7">
-        <v>0.95896701226345</v>
+        <v>1.02550750656611</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C8">
-        <v>0.896747085047635</v>
+        <v>0.9618697335049529</v>
       </c>
       <c r="D8">
-        <v>0.9114561482731239</v>
+        <v>0.9767736864533672</v>
       </c>
       <c r="E8">
-        <v>0.9139260594120995</v>
+        <v>0.9780909733274485</v>
       </c>
       <c r="F8">
-        <v>0.8950644514371839</v>
+        <v>0.9832263983109829</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.038051902489176</v>
+      </c>
       <c r="J8">
-        <v>0.9218424099266014</v>
+        <v>0.9846449537614227</v>
       </c>
       <c r="K8">
-        <v>0.9239859574652346</v>
+        <v>0.9882777436106335</v>
       </c>
       <c r="L8">
-        <v>0.9264136369579239</v>
+        <v>0.989576128726827</v>
       </c>
       <c r="M8">
-        <v>0.9078822081016488</v>
+        <v>0.9946384768211562</v>
       </c>
       <c r="N8">
-        <v>0.9452887555598098</v>
+        <v>0.9860432625361187</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.8490087003668727</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D9">
-        <v>0.868895098361943</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E9">
-        <v>0.8720179850888197</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F9">
-        <v>0.8443615579896171</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J9">
-        <v>0.8813080430696288</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K9">
-        <v>0.8845458868340331</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L9">
-        <v>0.8875958742931297</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M9">
-        <v>0.8606104099203088</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N9">
-        <v>0.9160290902789224</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.8070217976844585</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D10">
-        <v>0.8316953631368696</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E10">
-        <v>0.8353961152339092</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F10">
-        <v>0.7997757163241019</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J10">
-        <v>0.8457208800377075</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K10">
-        <v>0.8499532812547019</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L10">
-        <v>0.8535453406657513</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M10">
-        <v>0.8190292914456938</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N10">
-        <v>0.8903762109151974</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.7840638999567441</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D11">
-        <v>0.8114690308211581</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E11">
-        <v>0.8154886345663178</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F11">
-        <v>0.7753772835445601</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J11">
-        <v>0.8263130868503564</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K11">
-        <v>0.8311053717585573</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L11">
-        <v>0.8349927374483866</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M11">
-        <v>0.7962878225269823</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N11">
-        <v>0.8764232135106931</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.7743285550586145</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D12">
-        <v>0.8029197155908365</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E12">
-        <v>0.8070753043273892</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F12">
-        <v>0.7650234256877306</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J12">
-        <v>0.8180974940989368</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K12">
-        <v>0.8231311380411716</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L12">
-        <v>0.8271435803837043</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M12">
-        <v>0.7866423148339157</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N12">
-        <v>0.8705274513015521</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.7764858735882721</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D13">
-        <v>0.8048127152191488</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E13">
-        <v>0.8089381275807667</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F13">
-        <v>0.7673182773617057</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J13">
-        <v>0.8199172323004806</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K13">
-        <v>0.8248971783066623</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L13">
-        <v>0.8288819106426653</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M13">
-        <v>0.7887798460987326</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N13">
-        <v>0.8718327436269719</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.7832886765734974</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D14">
-        <v>0.8107876212433471</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E14">
-        <v>0.8148180355950351</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F14">
-        <v>0.7745530011926548</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J14">
-        <v>0.8256585443752824</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K14">
-        <v>0.8304699589794297</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L14">
-        <v>0.8343672873572203</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M14">
-        <v>0.7955198018733153</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N14">
-        <v>0.8759532405681245</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.7872963429257985</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D15">
-        <v>0.8143114471969873</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E15">
-        <v>0.818286006438642</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F15">
-        <v>0.7788139545482073</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J15">
-        <v>0.8290429308270801</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K15">
-        <v>0.8337556141890308</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L15">
-        <v>0.8376014328746808</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M15">
-        <v>0.7994901481863549</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N15">
-        <v>0.8783837426539959</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.8084131751795283</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D16">
-        <v>0.8329239714553672</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E16">
-        <v>0.8366054748713975</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F16">
-        <v>0.8012537609229069</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J16">
-        <v>0.8468984576309579</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K16">
-        <v>0.8510973206499153</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L16">
-        <v>0.8546714637973095</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M16">
-        <v>0.8204073886004185</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N16">
-        <v>0.8912238279468838</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.8201580137348341</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D17">
-        <v>0.8433067219838366</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E17">
-        <v>0.8468260501202097</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F17">
-        <v>0.813728076649039</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J17">
-        <v>0.8568439416397502</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K17">
-        <v>0.8607613789104286</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L17">
-        <v>0.8641841809452264</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M17">
-        <v>0.8320395576029553</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N17">
-        <v>0.8983865033094786</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.8265913793127559</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D18">
-        <v>0.8490026787022218</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E18">
-        <v>0.8524333882134359</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F18">
-        <v>0.8205597537286587</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J18">
-        <v>0.8622954210310314</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K18">
-        <v>0.8660599270421678</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L18">
-        <v>0.8693997389746124</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M18">
-        <v>0.8384108390675306</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N18">
-        <v>0.9023153301319369</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.8287227290890102</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D19">
-        <v>0.8508910349312261</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E19">
-        <v>0.8542924160232928</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F19">
-        <v>0.8228229155995173</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J19">
-        <v>0.8641020031261213</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K19">
-        <v>0.867816026903458</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L19">
-        <v>0.8711283284778505</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M19">
-        <v>0.8405215725333021</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N19">
-        <v>0.90361769100225</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.8189432303530058</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D20">
-        <v>0.8422318574721143</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E20">
-        <v>0.8457679353655922</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F20">
-        <v>0.8124379947088944</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J20">
-        <v>0.8558148453370208</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K20">
-        <v>0.8597612550691143</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L20">
-        <v>0.8631997200389077</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M20">
-        <v>0.8308364706003698</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N20">
-        <v>0.8976450464328914</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.7813255228183256</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D21">
-        <v>0.8090625202606221</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E21">
-        <v>0.8131203247051492</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F21">
-        <v>0.7724654686335122</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J21">
-        <v>0.8240012545615771</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K21">
-        <v>0.828861181202262</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L21">
-        <v>0.8327837365263423</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M21">
-        <v>0.7935748518342072</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N21">
-        <v>0.8747634692002768</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.7497800605133367</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D22">
-        <v>0.7814426928629965</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E22">
-        <v>0.7859434707650227</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F22">
-        <v>0.7388870293198448</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J22">
-        <v>0.7974261201989881</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K22">
-        <v>0.8030799042335748</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L22">
-        <v>0.8074074237342678</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M22">
-        <v>0.7623130211460413</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N22">
-        <v>0.8557267116179568</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.7676335299924455</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D23">
-        <v>0.7970505662523211</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E23">
-        <v>0.801299963403337</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F23">
-        <v>0.7578997009333094</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J23">
-        <v>0.8124531903550499</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K23">
-        <v>0.8176542777543575</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L23">
-        <v>0.8217526929983159</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M23">
-        <v>0.7800082151565353</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N23">
-        <v>0.8664811195548738</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.8194933998899351</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D24">
-        <v>0.8427186314279206</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E24">
-        <v>0.8462471227751299</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F24">
-        <v>0.8130222703874831</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J24">
-        <v>0.8562809066114974</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K24">
-        <v>0.8602141910582048</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L24">
-        <v>0.8636455626511295</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M24">
-        <v>0.8313813440191776</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N24">
-        <v>0.8979808321038872</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.8626755483777457</v>
+        <v>0.8388668632112738</v>
       </c>
       <c r="D25">
-        <v>0.8810540250815424</v>
+        <v>0.85753346650305</v>
       </c>
       <c r="E25">
-        <v>0.883989796834997</v>
+        <v>0.8680291833993128</v>
       </c>
       <c r="F25">
-        <v>0.8588726158072973</v>
+        <v>0.864820113493305</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.016786310803525</v>
+      </c>
       <c r="J25">
-        <v>0.892908747207967</v>
+        <v>0.8717485491265493</v>
       </c>
       <c r="K25">
-        <v>0.8958298473477639</v>
+        <v>0.8734555018610437</v>
       </c>
       <c r="L25">
-        <v>0.8987025207139272</v>
+        <v>0.8837003098493322</v>
       </c>
       <c r="M25">
-        <v>0.8741438340376261</v>
+        <v>0.8805670886051516</v>
       </c>
       <c r="N25">
-        <v>0.9244025477872225</v>
+        <v>0.872986532057265</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9490068917719711</v>
+        <v>0.907671558713654</v>
       </c>
       <c r="D2">
-        <v>0.9642724113306539</v>
+        <v>0.9239202666524291</v>
       </c>
       <c r="E2">
-        <v>0.9665424287379707</v>
+        <v>0.9262517418096812</v>
       </c>
       <c r="F2">
-        <v>0.9708061248294798</v>
+        <v>0.9322794020264649</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035803183633953</v>
+        <v>1.037067644136287</v>
       </c>
       <c r="J2">
-        <v>0.9728276479947937</v>
+        <v>0.9330140843664975</v>
       </c>
       <c r="K2">
-        <v>0.9762529965086826</v>
+        <v>0.9365521533220316</v>
       </c>
       <c r="L2">
-        <v>0.9784884345232946</v>
+        <v>0.9388440041116392</v>
       </c>
       <c r="M2">
-        <v>0.9826877377565962</v>
+        <v>0.9447704050173237</v>
       </c>
       <c r="N2">
-        <v>0.9742091748398372</v>
+        <v>0.934339071384509</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9847065254427011</v>
+        <v>0.9604225851956347</v>
       </c>
       <c r="D3">
-        <v>0.9989832021974421</v>
+        <v>0.9748093000356288</v>
       </c>
       <c r="E3">
-        <v>0.9986119948259158</v>
+        <v>0.9737149502908592</v>
       </c>
       <c r="F3">
-        <v>1.005296565683306</v>
+        <v>0.9811598673790748</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042038905353819</v>
+        <v>1.041022079347503</v>
       </c>
       <c r="J3">
-        <v>1.005622970077033</v>
+        <v>0.9820535686986236</v>
       </c>
       <c r="K3">
-        <v>1.009629109694954</v>
+        <v>0.9857749807902049</v>
       </c>
       <c r="L3">
-        <v>1.009262666298518</v>
+        <v>0.9846955800911095</v>
       </c>
       <c r="M3">
-        <v>1.015862121586639</v>
+        <v>0.9920396253046311</v>
       </c>
       <c r="N3">
-        <v>1.007051070041109</v>
+        <v>0.9834481974092942</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004670332982621</v>
+        <v>0.9875866936823124</v>
       </c>
       <c r="D4">
-        <v>1.018412762082744</v>
+        <v>1.001051015058811</v>
       </c>
       <c r="E4">
-        <v>1.016568229332427</v>
+        <v>0.9981920905091269</v>
       </c>
       <c r="F4">
-        <v>1.02460947014998</v>
+        <v>1.006377817501098</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045508816750817</v>
+        <v>1.043058324873063</v>
       </c>
       <c r="J4">
-        <v>1.023955320988734</v>
+        <v>1.007313352943212</v>
       </c>
       <c r="K4">
-        <v>1.028293926546307</v>
+        <v>1.011136771784811</v>
       </c>
       <c r="L4">
-        <v>1.026470719817873</v>
+        <v>1.008312384491753</v>
       </c>
       <c r="M4">
-        <v>1.034419683329915</v>
+        <v>1.016399872538403</v>
       </c>
       <c r="N4">
-        <v>1.025409454993854</v>
+        <v>1.008743853444848</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01250049839855</v>
+        <v>0.9979467375241897</v>
       </c>
       <c r="D5">
-        <v>1.026036708039143</v>
+        <v>1.011064482867477</v>
       </c>
       <c r="E5">
-        <v>1.02361492380371</v>
+        <v>1.007531535122149</v>
       </c>
       <c r="F5">
-        <v>1.032189105002982</v>
+        <v>1.016001487146958</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046863293787879</v>
+        <v>1.043832205409491</v>
       </c>
       <c r="J5">
-        <v>1.031142987256379</v>
+        <v>1.016946331619463</v>
       </c>
       <c r="K5">
-        <v>1.035613744337565</v>
+        <v>1.020809880433965</v>
       </c>
       <c r="L5">
-        <v>1.033218782096039</v>
+        <v>1.017317561479196</v>
       </c>
       <c r="M5">
-        <v>1.041698696387718</v>
+        <v>1.025690692782267</v>
       </c>
       <c r="N5">
-        <v>1.032607328572037</v>
+        <v>1.018390512055737</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013786141974054</v>
+        <v>0.9996344356658958</v>
       </c>
       <c r="D6">
-        <v>1.027288663002828</v>
+        <v>1.012695965730871</v>
       </c>
       <c r="E6">
-        <v>1.024772129626076</v>
+        <v>1.009053140163537</v>
       </c>
       <c r="F6">
-        <v>1.033433866644041</v>
+        <v>1.01756947454938</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047085251805639</v>
+        <v>1.043958060289477</v>
       </c>
       <c r="J6">
-        <v>1.032322966427331</v>
+        <v>1.018515499128264</v>
       </c>
       <c r="K6">
-        <v>1.036815522851768</v>
+        <v>1.022385646383292</v>
       </c>
       <c r="L6">
-        <v>1.034326661462765</v>
+        <v>1.018784372656238</v>
       </c>
       <c r="M6">
-        <v>1.042893847985965</v>
+        <v>1.027204138593972</v>
       </c>
       <c r="N6">
-        <v>1.033788983448757</v>
+        <v>1.019961907962387</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004776985425952</v>
+        <v>0.9877287900081215</v>
       </c>
       <c r="D7">
-        <v>1.018516593491455</v>
+        <v>1.001188339795998</v>
       </c>
       <c r="E7">
-        <v>1.016664195969347</v>
+        <v>0.9983201754459399</v>
       </c>
       <c r="F7">
-        <v>1.02471269233587</v>
+        <v>1.006509794869228</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045527294335608</v>
+        <v>1.043068952902275</v>
       </c>
       <c r="J7">
-        <v>1.024053233513972</v>
+        <v>1.007445482251598</v>
       </c>
       <c r="K7">
-        <v>1.028393632109363</v>
+        <v>1.011269447080077</v>
       </c>
       <c r="L7">
-        <v>1.026562639181513</v>
+        <v>1.008435908543599</v>
       </c>
       <c r="M7">
-        <v>1.034518828092619</v>
+        <v>1.016527306948452</v>
       </c>
       <c r="N7">
-        <v>1.02550750656611</v>
+        <v>1.008876170392007</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9618697335049529</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D8">
-        <v>0.9767736864533672</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E8">
-        <v>0.9780909733274485</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F8">
-        <v>0.9832263983109829</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038051902489176</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J8">
-        <v>0.9846449537614227</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K8">
-        <v>0.9882777436106335</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L8">
-        <v>0.989576128726827</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M8">
-        <v>0.9946384768211562</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N8">
-        <v>0.9860432625361187</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D9">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E9">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F9">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J9">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K9">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L9">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M9">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N9">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D10">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E10">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F10">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J10">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K10">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L10">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M10">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N10">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D11">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E11">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F11">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J11">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K11">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L11">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M11">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N11">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D12">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E12">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F12">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J12">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K12">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L12">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M12">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N12">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D13">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E13">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F13">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J13">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K13">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L13">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M13">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N13">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D14">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E14">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F14">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J14">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K14">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L14">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M14">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N14">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D15">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E15">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F15">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J15">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K15">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L15">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M15">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N15">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D16">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E16">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F16">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J16">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K16">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L16">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M16">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N16">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D17">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E17">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F17">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J17">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K17">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L17">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M17">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N17">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D18">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E18">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F18">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J18">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K18">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L18">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M18">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N18">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D19">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E19">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F19">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J19">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K19">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L19">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M19">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N19">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D20">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E20">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F20">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J20">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K20">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L20">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M20">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N20">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D21">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E21">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F21">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J21">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K21">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L21">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M21">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N21">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D22">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E22">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F22">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J22">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K22">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L22">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M22">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N22">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D23">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E23">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F23">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J23">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K23">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L23">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M23">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N23">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D24">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E24">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F24">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J24">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K24">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L24">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M24">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N24">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8388668632112738</v>
+        <v>0.9275082390817962</v>
       </c>
       <c r="D25">
-        <v>0.85753346650305</v>
+        <v>0.9430442900590493</v>
       </c>
       <c r="E25">
-        <v>0.8680291833993128</v>
+        <v>0.9440865766567317</v>
       </c>
       <c r="F25">
-        <v>0.864820113493305</v>
+        <v>0.950643609329958</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.016786310803525</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J25">
-        <v>0.8717485491265493</v>
+        <v>0.9514507568016678</v>
       </c>
       <c r="K25">
-        <v>0.8734555018610437</v>
+        <v>0.9550553348769469</v>
       </c>
       <c r="L25">
-        <v>0.8837003098493322</v>
+        <v>0.9560812611283429</v>
       </c>
       <c r="M25">
-        <v>0.8805670886051516</v>
+        <v>0.9625364210962738</v>
       </c>
       <c r="N25">
-        <v>0.872986532057265</v>
+        <v>0.9528019260092532</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>0.907671558713654</v>
+        <v>1.173724721177118</v>
       </c>
       <c r="D2">
-        <v>0.9239202666524291</v>
+        <v>1.180143870303751</v>
       </c>
       <c r="E2">
-        <v>0.9262517418096812</v>
+        <v>1.165107498415543</v>
       </c>
       <c r="F2">
-        <v>0.9322794020264649</v>
+        <v>1.177269549995638</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037067644136287</v>
+        <v>1.034750151734215</v>
       </c>
       <c r="J2">
-        <v>0.9330140843664975</v>
+        <v>1.178182774779943</v>
       </c>
       <c r="K2">
-        <v>0.9365521533220316</v>
+        <v>1.182580264568403</v>
       </c>
       <c r="L2">
-        <v>0.9388440041116392</v>
+        <v>1.167576858788469</v>
       </c>
       <c r="M2">
-        <v>0.9447704050173237</v>
+        <v>1.179712176442149</v>
       </c>
       <c r="N2">
-        <v>0.934339071384509</v>
+        <v>1.179855929459584</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9604225851956347</v>
+        <v>1.178499317574796</v>
       </c>
       <c r="D3">
-        <v>0.9748093000356288</v>
+        <v>1.18479146393432</v>
       </c>
       <c r="E3">
-        <v>0.9737149502908592</v>
+        <v>1.169412856507996</v>
       </c>
       <c r="F3">
-        <v>0.9811598673790748</v>
+        <v>1.181705452232316</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041022079347503</v>
+        <v>1.034968540629482</v>
       </c>
       <c r="J3">
-        <v>0.9820535686986236</v>
+        <v>1.182635718723106</v>
       </c>
       <c r="K3">
-        <v>0.9857749807902049</v>
+        <v>1.187055390228695</v>
       </c>
       <c r="L3">
-        <v>0.9846955800911095</v>
+        <v>1.171707895353263</v>
       </c>
       <c r="M3">
-        <v>0.9920396253046311</v>
+        <v>1.183975552772438</v>
       </c>
       <c r="N3">
-        <v>0.9834481974092942</v>
+        <v>1.184315197093905</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9875866936823124</v>
+        <v>1.181555438499013</v>
       </c>
       <c r="D4">
-        <v>1.001051015058811</v>
+        <v>1.187765789567637</v>
       </c>
       <c r="E4">
-        <v>0.9981920905091269</v>
+        <v>1.172167173474739</v>
       </c>
       <c r="F4">
-        <v>1.006377817501098</v>
+        <v>1.184543082489814</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043058324873063</v>
+        <v>1.035104774096685</v>
       </c>
       <c r="J4">
-        <v>1.007313352943212</v>
+        <v>1.185484316741865</v>
       </c>
       <c r="K4">
-        <v>1.011136771784811</v>
+        <v>1.189918173745531</v>
       </c>
       <c r="L4">
-        <v>1.008312384491753</v>
+        <v>1.174349426641909</v>
       </c>
       <c r="M4">
-        <v>1.016399872538403</v>
+        <v>1.186701569276752</v>
       </c>
       <c r="N4">
-        <v>1.008743853444848</v>
+        <v>1.187167840448591</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9979467375241897</v>
+        <v>1.18283253482353</v>
       </c>
       <c r="D5">
-        <v>1.011064482867477</v>
+        <v>1.189008583133323</v>
       </c>
       <c r="E5">
-        <v>1.007531535122149</v>
+        <v>1.173317802325079</v>
       </c>
       <c r="F5">
-        <v>1.016001487146958</v>
+        <v>1.185728466275991</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043832205409491</v>
+        <v>1.035160849307454</v>
       </c>
       <c r="J5">
-        <v>1.016946331619463</v>
+        <v>1.186674300355982</v>
       </c>
       <c r="K5">
-        <v>1.020809880433965</v>
+        <v>1.191114081693979</v>
       </c>
       <c r="L5">
-        <v>1.017317561479196</v>
+        <v>1.175452636879291</v>
       </c>
       <c r="M5">
-        <v>1.025690692782267</v>
+        <v>1.187840029446056</v>
       </c>
       <c r="N5">
-        <v>1.018390512055737</v>
+        <v>1.188359513975932</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9996344356658958</v>
+        <v>1.183046521816671</v>
       </c>
       <c r="D6">
-        <v>1.012695965730871</v>
+        <v>1.189216815241053</v>
       </c>
       <c r="E6">
-        <v>1.009053140163537</v>
+        <v>1.173510578231852</v>
       </c>
       <c r="F6">
-        <v>1.01756947454938</v>
+        <v>1.185927062061119</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043958060289477</v>
+        <v>1.035170194895599</v>
       </c>
       <c r="J6">
-        <v>1.018515499128264</v>
+        <v>1.18687366791698</v>
       </c>
       <c r="K6">
-        <v>1.022385646383292</v>
+        <v>1.191314441699809</v>
       </c>
       <c r="L6">
-        <v>1.018784372656238</v>
+        <v>1.175637450604206</v>
       </c>
       <c r="M6">
-        <v>1.027204138593972</v>
+        <v>1.188030746294929</v>
       </c>
       <c r="N6">
-        <v>1.019961907962387</v>
+        <v>1.188559164661735</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9877287900081215</v>
+        <v>1.181572532988299</v>
       </c>
       <c r="D7">
-        <v>1.001188339795998</v>
+        <v>1.187782425382114</v>
       </c>
       <c r="E7">
-        <v>0.9983201754459399</v>
+        <v>1.172182576518563</v>
       </c>
       <c r="F7">
-        <v>1.006509794869228</v>
+        <v>1.184558950982279</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043068952902275</v>
+        <v>1.035105528056915</v>
       </c>
       <c r="J7">
-        <v>1.007445482251598</v>
+        <v>1.185500246736628</v>
       </c>
       <c r="K7">
-        <v>1.011269447080077</v>
+        <v>1.189934183054627</v>
       </c>
       <c r="L7">
-        <v>1.008435908543599</v>
+        <v>1.174364196098042</v>
       </c>
       <c r="M7">
-        <v>1.016527306948452</v>
+        <v>1.186716810786684</v>
       </c>
       <c r="N7">
-        <v>1.008876170392007</v>
+        <v>1.187183793065773</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9275082390817962</v>
+        <v>1.175345404105126</v>
       </c>
       <c r="D8">
-        <v>0.9430442900590493</v>
+        <v>1.181721547670009</v>
       </c>
       <c r="E8">
-        <v>0.9440865766567317</v>
+        <v>1.166569206382772</v>
       </c>
       <c r="F8">
-        <v>0.950643609329958</v>
+        <v>1.178775620011999</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038552031227451</v>
+        <v>1.034825020247594</v>
       </c>
       <c r="J8">
-        <v>0.9514507568016678</v>
+        <v>1.179694618371821</v>
       </c>
       <c r="K8">
-        <v>0.9550553348769469</v>
+        <v>1.184099639798525</v>
       </c>
       <c r="L8">
-        <v>0.9560812611283429</v>
+        <v>1.168979647581369</v>
       </c>
       <c r="M8">
-        <v>0.9625364210962738</v>
+        <v>1.181159931992742</v>
       </c>
       <c r="N8">
-        <v>0.9528019260092532</v>
+        <v>1.181369920042774</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9275082390817962</v>
+        <v>1.164103367218748</v>
       </c>
       <c r="D9">
-        <v>0.9430442900590493</v>
+        <v>1.17077577832289</v>
       </c>
       <c r="E9">
-        <v>0.9440865766567317</v>
+        <v>1.156423872949547</v>
       </c>
       <c r="F9">
-        <v>0.950643609329958</v>
+        <v>1.168321595870597</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038552031227451</v>
+        <v>1.034290965616229</v>
       </c>
       <c r="J9">
-        <v>0.9514507568016678</v>
+        <v>1.16920069947522</v>
       </c>
       <c r="K9">
-        <v>0.9550553348769469</v>
+        <v>1.173553445665439</v>
       </c>
       <c r="L9">
-        <v>0.9560812611283429</v>
+        <v>1.15923791598218</v>
       </c>
       <c r="M9">
-        <v>0.9625364210962738</v>
+        <v>1.171105415230106</v>
       </c>
       <c r="N9">
-        <v>0.9528019260092532</v>
+        <v>1.170861098577669</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9275082390817962</v>
+        <v>1.156408105685987</v>
       </c>
       <c r="D10">
-        <v>0.9430442900590493</v>
+        <v>1.163280795224431</v>
       </c>
       <c r="E10">
-        <v>0.9440865766567317</v>
+        <v>1.149471712575498</v>
       </c>
       <c r="F10">
-        <v>0.950643609329958</v>
+        <v>1.161156972584162</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038552031227451</v>
+        <v>1.033906927543563</v>
       </c>
       <c r="J10">
-        <v>0.9514507568016678</v>
+        <v>1.162008855881951</v>
       </c>
       <c r="K10">
-        <v>0.9550553348769469</v>
+        <v>1.166325803633457</v>
       </c>
       <c r="L10">
-        <v>0.9560812611283429</v>
+        <v>1.152555515735182</v>
       </c>
       <c r="M10">
-        <v>0.9625364210962738</v>
+        <v>1.164207882478372</v>
       </c>
       <c r="N10">
-        <v>0.9528019260092532</v>
+        <v>1.163659041741582</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9275082390817962</v>
+        <v>1.153023775512674</v>
       </c>
       <c r="D11">
-        <v>0.9430442900590493</v>
+        <v>1.159983971162742</v>
       </c>
       <c r="E11">
-        <v>0.9440865766567317</v>
+        <v>1.146412404668183</v>
       </c>
       <c r="F11">
-        <v>0.950643609329958</v>
+        <v>1.158003970033121</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038552031227451</v>
+        <v>1.033733694184499</v>
       </c>
       <c r="J11">
-        <v>0.9514507568016678</v>
+        <v>1.158843867306624</v>
       </c>
       <c r="K11">
-        <v>0.9550553348769469</v>
+        <v>1.163145075327977</v>
       </c>
       <c r="L11">
-        <v>0.9560812611283429</v>
+        <v>1.149613281951436</v>
       </c>
       <c r="M11">
-        <v>0.9625364210962738</v>
+        <v>1.161170813674561</v>
       </c>
       <c r="N11">
-        <v>0.9528019260092532</v>
+        <v>1.160489558519449</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9275082390817962</v>
+        <v>1.151758422234229</v>
       </c>
       <c r="D12">
-        <v>0.9430442900590493</v>
+        <v>1.158751250795198</v>
       </c>
       <c r="E12">
-        <v>0.9440865766567317</v>
+        <v>1.145268305199419</v>
       </c>
       <c r="F12">
-        <v>0.950643609329958</v>
+        <v>1.156824803024507</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038552031227451</v>
+        <v>1.033668277609773</v>
       </c>
       <c r="J12">
-        <v>0.9514507568016678</v>
+        <v>1.157660213565912</v>
       </c>
       <c r="K12">
-        <v>0.9550553348769469</v>
+        <v>1.161955538050469</v>
       </c>
       <c r="L12">
-        <v>0.9560812611283429</v>
+        <v>1.148512718039964</v>
       </c>
       <c r="M12">
-        <v>0.9625364210962738</v>
+        <v>1.160034761097571</v>
       </c>
       <c r="N12">
-        <v>0.9528019260092532</v>
+        <v>1.159304223854658</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9275082390817962</v>
+        <v>1.15203022559354</v>
       </c>
       <c r="D13">
-        <v>0.9430442900590493</v>
+        <v>1.159016048245768</v>
       </c>
       <c r="E13">
-        <v>0.9440865766567317</v>
+        <v>1.145514074782588</v>
       </c>
       <c r="F13">
-        <v>0.950643609329958</v>
+        <v>1.157078106884141</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038552031227451</v>
+        <v>1.033682358555131</v>
       </c>
       <c r="J13">
-        <v>0.9514507568016678</v>
+        <v>1.157914481487043</v>
       </c>
       <c r="K13">
-        <v>0.9550553348769469</v>
+        <v>1.162211069709428</v>
       </c>
       <c r="L13">
-        <v>0.9560812611283429</v>
+        <v>1.148749146730608</v>
       </c>
       <c r="M13">
-        <v>0.9625364210962738</v>
+        <v>1.160278814284192</v>
       </c>
       <c r="N13">
-        <v>0.9528019260092532</v>
+        <v>1.159558852865402</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9275082390817962</v>
+        <v>1.152919352039043</v>
       </c>
       <c r="D14">
-        <v>0.9430442900590493</v>
+        <v>1.159882242431018</v>
       </c>
       <c r="E14">
-        <v>0.9440865766567317</v>
+        <v>1.146317993119491</v>
       </c>
       <c r="F14">
-        <v>0.950643609329958</v>
+        <v>1.157906665261256</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038552031227451</v>
+        <v>1.033728308818411</v>
       </c>
       <c r="J14">
-        <v>0.9514507568016678</v>
+        <v>1.158746192393305</v>
       </c>
       <c r="K14">
-        <v>0.9550553348769469</v>
+        <v>1.163046914843803</v>
       </c>
       <c r="L14">
-        <v>0.9560812611283429</v>
+        <v>1.149522468011917</v>
       </c>
       <c r="M14">
-        <v>0.9625364210962738</v>
+        <v>1.161077071650566</v>
       </c>
       <c r="N14">
-        <v>0.9528019260092532</v>
+        <v>1.16039174489655</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9275082390817962</v>
+        <v>1.15346606457716</v>
       </c>
       <c r="D15">
-        <v>0.9430442900590493</v>
+        <v>1.160414843124553</v>
       </c>
       <c r="E15">
-        <v>0.9440865766567317</v>
+        <v>1.146812276980308</v>
       </c>
       <c r="F15">
-        <v>0.950643609329958</v>
+        <v>1.158416095210268</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038552031227451</v>
+        <v>1.033756477677535</v>
       </c>
       <c r="J15">
-        <v>0.9514507568016678</v>
+        <v>1.159257559993685</v>
       </c>
       <c r="K15">
-        <v>0.9550553348769469</v>
+        <v>1.163560824724753</v>
       </c>
       <c r="L15">
-        <v>0.9560812611283429</v>
+        <v>1.149997906789024</v>
       </c>
       <c r="M15">
-        <v>0.9625364210962738</v>
+        <v>1.161567839248692</v>
       </c>
       <c r="N15">
-        <v>0.9528019260092532</v>
+        <v>1.160903838697577</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9275082390817962</v>
+        <v>1.156631577106379</v>
       </c>
       <c r="D16">
-        <v>0.9430442900590493</v>
+        <v>1.163498476636917</v>
       </c>
       <c r="E16">
-        <v>0.9440865766567317</v>
+        <v>1.149673685033457</v>
       </c>
       <c r="F16">
-        <v>0.950643609329958</v>
+        <v>1.161365126633817</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038552031227451</v>
+        <v>1.033918275931879</v>
       </c>
       <c r="J16">
-        <v>0.9514507568016678</v>
+        <v>1.162217800813323</v>
       </c>
       <c r="K16">
-        <v>0.9550553348769469</v>
+        <v>1.166535788024768</v>
       </c>
       <c r="L16">
-        <v>0.9560812611283429</v>
+        <v>1.152749724737988</v>
       </c>
       <c r="M16">
-        <v>0.9625364210962738</v>
+        <v>1.164408349094215</v>
       </c>
       <c r="N16">
-        <v>0.9528019260092532</v>
+        <v>1.163868283398722</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9275082390817962</v>
+        <v>1.158602948967022</v>
       </c>
       <c r="D17">
-        <v>0.9430442900590493</v>
+        <v>1.165418705795594</v>
       </c>
       <c r="E17">
-        <v>0.9440865766567317</v>
+        <v>1.151455197145776</v>
       </c>
       <c r="F17">
-        <v>0.950643609329958</v>
+        <v>1.163201141209703</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038552031227451</v>
+        <v>1.034017890418512</v>
       </c>
       <c r="J17">
-        <v>0.9514507568016678</v>
+        <v>1.164060790161449</v>
       </c>
       <c r="K17">
-        <v>0.9550553348769469</v>
+        <v>1.168387947621326</v>
       </c>
       <c r="L17">
-        <v>0.9560812611283429</v>
+        <v>1.154462571378658</v>
       </c>
       <c r="M17">
-        <v>0.9625364210962738</v>
+        <v>1.166176372709852</v>
       </c>
       <c r="N17">
-        <v>0.9528019260092532</v>
+        <v>1.165713890003117</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9275082390817962</v>
+        <v>1.159747806362424</v>
       </c>
       <c r="D18">
-        <v>0.9430442900590493</v>
+        <v>1.166533807383404</v>
       </c>
       <c r="E18">
-        <v>0.9440865766567317</v>
+        <v>1.152489623978858</v>
       </c>
       <c r="F18">
-        <v>0.950643609329958</v>
+        <v>1.16426719540942</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038552031227451</v>
+        <v>1.034075325921422</v>
       </c>
       <c r="J18">
-        <v>0.9514507568016678</v>
+        <v>1.165130893708505</v>
       </c>
       <c r="K18">
-        <v>0.9550553348769469</v>
+        <v>1.169463377067138</v>
       </c>
       <c r="L18">
-        <v>0.9560812611283429</v>
+        <v>1.155456971857996</v>
       </c>
       <c r="M18">
-        <v>0.9625364210962738</v>
+        <v>1.167202795481157</v>
       </c>
       <c r="N18">
-        <v>0.9528019260092532</v>
+        <v>1.166785513219953</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9275082390817962</v>
+        <v>1.160137335561016</v>
       </c>
       <c r="D19">
-        <v>0.9430442900590493</v>
+        <v>1.166913202981694</v>
       </c>
       <c r="E19">
-        <v>0.9440865766567317</v>
+        <v>1.152841550934811</v>
       </c>
       <c r="F19">
-        <v>0.950643609329958</v>
+        <v>1.164629879135741</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038552031227451</v>
+        <v>1.034094797445955</v>
       </c>
       <c r="J19">
-        <v>0.9514507568016678</v>
+        <v>1.165494955084952</v>
       </c>
       <c r="K19">
-        <v>0.9550553348769469</v>
+        <v>1.169829250580711</v>
       </c>
       <c r="L19">
-        <v>0.9560812611283429</v>
+        <v>1.155795254844466</v>
       </c>
       <c r="M19">
-        <v>0.9625364210962738</v>
+        <v>1.16755197014721</v>
       </c>
       <c r="N19">
-        <v>0.9528019260092532</v>
+        <v>1.167150091605313</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9275082390817962</v>
+        <v>1.15839196061445</v>
       </c>
       <c r="D20">
-        <v>0.9430442900590493</v>
+        <v>1.165213196746586</v>
       </c>
       <c r="E20">
-        <v>0.9440865766567317</v>
+        <v>1.151264546473827</v>
       </c>
       <c r="F20">
-        <v>0.950643609329958</v>
+        <v>1.163004659871394</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038552031227451</v>
+        <v>1.03400727200591</v>
       </c>
       <c r="J20">
-        <v>0.9514507568016678</v>
+        <v>1.163863562485613</v>
       </c>
       <c r="K20">
-        <v>0.9550553348769469</v>
+        <v>1.168189738447351</v>
       </c>
       <c r="L20">
-        <v>0.9560812611283429</v>
+        <v>1.154279285206679</v>
       </c>
       <c r="M20">
-        <v>0.9625364210962738</v>
+        <v>1.165987183347414</v>
       </c>
       <c r="N20">
-        <v>0.9528019260092532</v>
+        <v>1.165516382241359</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9275082390817962</v>
+        <v>1.152657757982279</v>
       </c>
       <c r="D21">
-        <v>0.9430442900590493</v>
+        <v>1.159627397690814</v>
       </c>
       <c r="E21">
-        <v>0.9440865766567317</v>
+        <v>1.146081475897408</v>
       </c>
       <c r="F21">
-        <v>0.950643609329958</v>
+        <v>1.157662899566575</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038552031227451</v>
+        <v>1.033714807371855</v>
       </c>
       <c r="J21">
-        <v>0.9514507568016678</v>
+        <v>1.158501499350584</v>
       </c>
       <c r="K21">
-        <v>0.9550553348769469</v>
+        <v>1.162801005408242</v>
       </c>
       <c r="L21">
-        <v>0.9560812611283429</v>
+        <v>1.149294959432404</v>
       </c>
       <c r="M21">
-        <v>0.9625364210962738</v>
+        <v>1.160842227351687</v>
       </c>
       <c r="N21">
-        <v>0.9528019260092532</v>
+        <v>1.160146704361642</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9275082390817962</v>
+        <v>1.149004412845144</v>
       </c>
       <c r="D22">
-        <v>0.9430442900590493</v>
+        <v>1.156068113637364</v>
       </c>
       <c r="E22">
-        <v>0.9440865766567317</v>
+        <v>1.142777712791172</v>
       </c>
       <c r="F22">
-        <v>0.950643609329958</v>
+        <v>1.154257822241259</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038552031227451</v>
+        <v>1.033524718223271</v>
       </c>
       <c r="J22">
-        <v>0.9514507568016678</v>
+        <v>1.155083454233854</v>
       </c>
       <c r="K22">
-        <v>0.9550553348769469</v>
+        <v>1.159365976563894</v>
       </c>
       <c r="L22">
-        <v>0.9560812611283429</v>
+        <v>1.146116443445427</v>
       </c>
       <c r="M22">
-        <v>0.9625364210962738</v>
+        <v>1.157561191383297</v>
       </c>
       <c r="N22">
-        <v>0.9528019260092532</v>
+        <v>1.15672380522879</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9275082390817962</v>
+        <v>1.150945816481299</v>
       </c>
       <c r="D23">
-        <v>0.9430442900590493</v>
+        <v>1.157959578284751</v>
       </c>
       <c r="E23">
-        <v>0.9440865766567317</v>
+        <v>1.14453349311334</v>
       </c>
       <c r="F23">
-        <v>0.950643609329958</v>
+        <v>1.15606746065074</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038552031227451</v>
+        <v>1.0336260856173</v>
       </c>
       <c r="J23">
-        <v>0.9514507568016678</v>
+        <v>1.156899987928902</v>
       </c>
       <c r="K23">
-        <v>0.9550553348769469</v>
+        <v>1.161191534487295</v>
       </c>
       <c r="L23">
-        <v>0.9560812611283429</v>
+        <v>1.147805797438571</v>
       </c>
       <c r="M23">
-        <v>0.9625364210962738</v>
+        <v>1.159305041263326</v>
       </c>
       <c r="N23">
-        <v>0.9528019260092532</v>
+        <v>1.158542918610045</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9275082390817962</v>
+        <v>1.158487312623846</v>
       </c>
       <c r="D24">
-        <v>0.9430442900590493</v>
+        <v>1.165306072664002</v>
       </c>
       <c r="E24">
-        <v>0.9440865766567317</v>
+        <v>1.151350707800977</v>
       </c>
       <c r="F24">
-        <v>0.950643609329958</v>
+        <v>1.163093456328698</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038552031227451</v>
+        <v>1.034012072071703</v>
       </c>
       <c r="J24">
-        <v>0.9514507568016678</v>
+        <v>1.163952696238842</v>
       </c>
       <c r="K24">
-        <v>0.9550553348769469</v>
+        <v>1.168279315768188</v>
       </c>
       <c r="L24">
-        <v>0.9560812611283429</v>
+        <v>1.15436211875646</v>
       </c>
       <c r="M24">
-        <v>0.9625364210962738</v>
+        <v>1.166072684793261</v>
       </c>
       <c r="N24">
-        <v>0.9528019260092532</v>
+        <v>1.165605642574741</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9275082390817962</v>
+        <v>1.16704355719825</v>
       </c>
       <c r="D25">
-        <v>0.9430442900590493</v>
+        <v>1.173638929531014</v>
       </c>
       <c r="E25">
-        <v>0.9440865766567317</v>
+        <v>1.159078563614006</v>
       </c>
       <c r="F25">
-        <v>0.950643609329958</v>
+        <v>1.17105722904769</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038552031227451</v>
+        <v>1.034433870437329</v>
       </c>
       <c r="J25">
-        <v>0.9514507568016678</v>
+        <v>1.171946739734431</v>
       </c>
       <c r="K25">
-        <v>0.9550553348769469</v>
+        <v>1.176313163029073</v>
       </c>
       <c r="L25">
-        <v>0.9560812611283429</v>
+        <v>1.161788176606312</v>
       </c>
       <c r="M25">
-        <v>0.9625364210962738</v>
+        <v>1.17373766673407</v>
       </c>
       <c r="N25">
-        <v>0.9528019260092532</v>
+        <v>1.173611038529024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,164 +412,1145 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.8595989819941529</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.8908035257249918</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.855064237944544</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9558320598134733</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.8869776035933332</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9040274898397784</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.8689952147939241</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9679430596494587</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.888237213528189</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>0.9831990224207778</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>0.9431944876024261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="C3">
+        <v>0.896657392492123</v>
+      </c>
+      <c r="D3">
+        <v>0.922471859754841</v>
+      </c>
+      <c r="E3">
+        <v>0.8935191504339168</v>
+      </c>
+      <c r="F3">
+        <v>0.9733274423698095</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.9204251172218965</v>
+      </c>
+      <c r="K3">
+        <v>0.9342032495947299</v>
+      </c>
+      <c r="L3">
+        <v>0.9057238669178191</v>
+      </c>
+      <c r="M3">
+        <v>0.9843133757589494</v>
+      </c>
+      <c r="N3">
+        <v>0.9217322264625882</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>0.9961560363189818</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>0.964534482072658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="C4">
+        <v>0.915347547012922</v>
+      </c>
+      <c r="D4">
+        <v>0.9384548331616185</v>
+      </c>
+      <c r="E4">
+        <v>0.9127502021032512</v>
+      </c>
+      <c r="F4">
+        <v>0.9823425135665073</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.9371959905947328</v>
+      </c>
+      <c r="K4">
+        <v>0.9493575563214632</v>
+      </c>
+      <c r="L4">
+        <v>0.9240297281747367</v>
+      </c>
+      <c r="M4">
+        <v>0.9926588264730509</v>
+      </c>
+      <c r="N4">
+        <v>0.9385269163992599</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.002761307294473</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>0.9752533142743021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="C5">
+        <v>0.9225372292797377</v>
+      </c>
+      <c r="D5">
+        <v>0.9446107452708707</v>
+      </c>
+      <c r="E5">
+        <v>0.9201276198323828</v>
+      </c>
+      <c r="F5">
+        <v>0.9858391520833666</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.9436373303651494</v>
+      </c>
+      <c r="K5">
+        <v>0.9551843018106291</v>
+      </c>
+      <c r="L5">
+        <v>0.9310444714384672</v>
+      </c>
+      <c r="M5">
+        <v>0.9958825687756836</v>
+      </c>
+      <c r="N5">
+        <v>0.9449774036109826</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.005312821368123</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>0.979381957973253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="C6">
+        <v>0.9238482436361211</v>
+      </c>
+      <c r="D6">
+        <v>0.9457399668778191</v>
+      </c>
+      <c r="E6">
+        <v>0.9214836960292037</v>
+      </c>
+      <c r="F6">
+        <v>0.9864708384483067</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.9448213857277379</v>
+      </c>
+      <c r="K6">
+        <v>0.9562575478950972</v>
+      </c>
+      <c r="L6">
+        <v>0.9323387565568131</v>
+      </c>
+      <c r="M6">
+        <v>0.996468155467061</v>
+      </c>
+      <c r="N6">
+        <v>0.9461631404679989</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.005776297965242</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>0.9801504828790981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="C7">
+        <v>0.9158631330340606</v>
+      </c>
+      <c r="D7">
+        <v>0.9389143470408372</v>
+      </c>
+      <c r="E7">
+        <v>0.9133154093262137</v>
+      </c>
+      <c r="F7">
+        <v>0.9825705624404243</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.9376877919145843</v>
+      </c>
+      <c r="K7">
+        <v>0.9498072994050979</v>
+      </c>
+      <c r="L7">
+        <v>0.9245829585931251</v>
+      </c>
+      <c r="M7">
+        <v>0.9928809250980596</v>
+      </c>
+      <c r="N7">
+        <v>0.939019416133396</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.002937093317556</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>0.9755933995419404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="C8">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D8">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E8">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F8">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K8">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L8">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M8">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N8">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="C9">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D9">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E9">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F9">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K9">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L9">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M9">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N9">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="C10">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D10">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E10">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F10">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K10">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L10">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M10">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N10">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="C11">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D11">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E11">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F11">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K11">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L11">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M11">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N11">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="C12">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D12">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E12">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F12">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K12">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L12">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M12">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N12">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="C13">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D13">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E13">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F13">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K13">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L13">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M13">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N13">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="C14">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D14">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E14">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F14">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K14">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L14">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M14">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N14">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="C15">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D15">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E15">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F15">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K15">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L15">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M15">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N15">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D16">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E16">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F16">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K16">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L16">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M16">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N16">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D17">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E17">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F17">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K17">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L17">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M17">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N17">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D18">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E18">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F18">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K18">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L18">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M18">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N18">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D19">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E19">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F19">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K19">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L19">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M19">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N19">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D20">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E20">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F20">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K20">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L20">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M20">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N20">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D21">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E21">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F21">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K21">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L21">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M21">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N21">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D22">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E22">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F22">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K22">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L22">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M22">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N22">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D23">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E23">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F23">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K23">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L23">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M23">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N23">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D24">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E24">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F24">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K24">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L24">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M24">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N24">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>0.9518325187326567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.8744721468675759</v>
+      </c>
+      <c r="D25">
+        <v>0.9035361459900463</v>
+      </c>
+      <c r="E25">
+        <v>0.8706021876381876</v>
+      </c>
+      <c r="F25">
+        <v>0.962763991640408</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.9004746525449817</v>
+      </c>
+      <c r="K25">
+        <v>0.9162033928049702</v>
+      </c>
+      <c r="L25">
+        <v>0.8838760909110687</v>
+      </c>
+      <c r="M25">
+        <v>0.9744731432410916</v>
+      </c>
+      <c r="N25">
+        <v>0.901753429837482</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>0.9883675810308001</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>0.9518325187326567</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
@@ -429,1128 +429,1272 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.8595989819941529</v>
+        <v>1.022655381577728</v>
       </c>
       <c r="D2">
-        <v>0.8908035257249918</v>
+        <v>1.036710172993184</v>
       </c>
       <c r="E2">
-        <v>0.855064237944544</v>
+        <v>1.03479925649114</v>
       </c>
       <c r="F2">
-        <v>0.9558320598134733</v>
+        <v>1.0430580590089</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.056513027598495</v>
+      </c>
       <c r="J2">
-        <v>0.8869776035933332</v>
+        <v>1.044178962851478</v>
       </c>
       <c r="K2">
-        <v>0.9040274898397784</v>
+        <v>1.047680712996551</v>
       </c>
       <c r="L2">
-        <v>0.8689952147939241</v>
+        <v>1.045794170659244</v>
       </c>
       <c r="M2">
-        <v>0.9679430596494587</v>
+        <v>1.053948429786312</v>
       </c>
       <c r="N2">
-        <v>0.888237213528189</v>
+        <v>1.018221519000586</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>0.9831990224207778</v>
+        <v>1.051268874954876</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>0.9431944876024261</v>
+        <v>1.044784658438977</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.896657392492123</v>
+        <v>1.027068002064449</v>
       </c>
       <c r="D3">
-        <v>0.922471859754841</v>
+        <v>1.040027798393317</v>
       </c>
       <c r="E3">
-        <v>0.8935191504339168</v>
+        <v>1.038294585211526</v>
       </c>
       <c r="F3">
-        <v>0.9733274423698095</v>
+        <v>1.046394823289423</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.057595458045582</v>
+      </c>
       <c r="J3">
-        <v>0.9204251172218965</v>
+        <v>1.046847011569216</v>
       </c>
       <c r="K3">
-        <v>0.9342032495947299</v>
+        <v>1.050172905289702</v>
       </c>
       <c r="L3">
-        <v>0.9057238669178191</v>
+        <v>1.048459849080353</v>
       </c>
       <c r="M3">
-        <v>0.9843133757589494</v>
+        <v>1.056466590220514</v>
       </c>
       <c r="N3">
-        <v>0.9217322264625882</v>
+        <v>1.01913902704025</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>0.9961560363189818</v>
+        <v>1.053261798256857</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>0.964534482072658</v>
+        <v>1.046544186751312</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.915347547012922</v>
+        <v>1.029865335232494</v>
       </c>
       <c r="D4">
-        <v>0.9384548331616185</v>
+        <v>1.042137654676625</v>
       </c>
       <c r="E4">
-        <v>0.9127502021032512</v>
+        <v>1.040516620716921</v>
       </c>
       <c r="F4">
-        <v>0.9823425135665073</v>
+        <v>1.048518519684542</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.058264564828741</v>
+      </c>
       <c r="J4">
-        <v>0.9371959905947328</v>
+        <v>1.048534752019185</v>
       </c>
       <c r="K4">
-        <v>0.9493575563214632</v>
+        <v>1.051752784188418</v>
       </c>
       <c r="L4">
-        <v>0.9240297281747367</v>
+        <v>1.050149453127352</v>
       </c>
       <c r="M4">
-        <v>0.9926588264730509</v>
+        <v>1.058064617165482</v>
       </c>
       <c r="N4">
-        <v>0.9385269163992599</v>
+        <v>1.019719418280849</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.002761307294473</v>
+        <v>1.054526506499641</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>0.9752533142743021</v>
+        <v>1.047662164849951</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9225372292797377</v>
+        <v>1.031033236873865</v>
       </c>
       <c r="D5">
-        <v>0.9446107452708707</v>
+        <v>1.043022633437703</v>
       </c>
       <c r="E5">
-        <v>0.9201276198323828</v>
+        <v>1.04144660839015</v>
       </c>
       <c r="F5">
-        <v>0.9858391520833666</v>
+        <v>1.049408031558387</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.058540642638182</v>
+      </c>
       <c r="J5">
-        <v>0.9436373303651494</v>
+        <v>1.049240468881216</v>
       </c>
       <c r="K5">
-        <v>0.9551843018106291</v>
+        <v>1.052415831199291</v>
       </c>
       <c r="L5">
-        <v>0.9310444714384672</v>
+        <v>1.050856554425766</v>
       </c>
       <c r="M5">
-        <v>0.9958825687756836</v>
+        <v>1.05873400131947</v>
       </c>
       <c r="N5">
-        <v>0.9449774036109826</v>
+        <v>1.019962956078724</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.005312821368123</v>
+        <v>1.055056268940265</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>0.979381957973253</v>
+        <v>1.048138079416704</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9238482436361211</v>
+        <v>1.03123503347942</v>
       </c>
       <c r="D6">
-        <v>0.9457399668778191</v>
+        <v>1.043178703426961</v>
       </c>
       <c r="E6">
-        <v>0.9214836960292037</v>
+        <v>1.04160837719864</v>
       </c>
       <c r="F6">
-        <v>0.9864708384483067</v>
+        <v>1.049562903438976</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.05858919184676</v>
+      </c>
       <c r="J6">
-        <v>0.9448213857277379</v>
+        <v>1.049364768638222</v>
       </c>
       <c r="K6">
-        <v>0.9562575478950972</v>
+        <v>1.052534607811549</v>
       </c>
       <c r="L6">
-        <v>0.9323387565568131</v>
+        <v>1.050980891946465</v>
       </c>
       <c r="M6">
-        <v>0.996468155467061</v>
+        <v>1.058851903036043</v>
       </c>
       <c r="N6">
-        <v>0.9461631404679989</v>
+        <v>1.020006888469427</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.005776297965242</v>
+        <v>1.055149578402594</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>0.9801504828790981</v>
+        <v>1.048230711823127</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9158631330340606</v>
+        <v>1.029898499346677</v>
       </c>
       <c r="D7">
-        <v>0.9389143470408372</v>
+        <v>1.042171003943643</v>
       </c>
       <c r="E7">
-        <v>0.9133154093262137</v>
+        <v>1.040545722029135</v>
       </c>
       <c r="F7">
-        <v>0.9825705624404243</v>
+        <v>1.048546621069846</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.058275368882404</v>
+      </c>
       <c r="J7">
-        <v>0.9376877919145843</v>
+        <v>1.048561309755119</v>
       </c>
       <c r="K7">
-        <v>0.9498072994050979</v>
+        <v>1.051782930178802</v>
       </c>
       <c r="L7">
-        <v>0.9245829585931251</v>
+        <v>1.050175390347196</v>
       </c>
       <c r="M7">
-        <v>0.9928809250980596</v>
+        <v>1.058089599926653</v>
       </c>
       <c r="N7">
-        <v>0.939019416133396</v>
+        <v>1.019731411658664</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.002937093317556</v>
+        <v>1.054546278304665</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>0.9755933995419404</v>
+        <v>1.047703379785321</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.8744721468675759</v>
+        <v>1.024181213063393</v>
       </c>
       <c r="D8">
-        <v>0.9035361459900463</v>
+        <v>1.037866265685315</v>
       </c>
       <c r="E8">
-        <v>0.8706021876381876</v>
+        <v>1.036010122647478</v>
       </c>
       <c r="F8">
-        <v>0.962763991640408</v>
+        <v>1.044213745835823</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.056894391308784</v>
+      </c>
       <c r="J8">
-        <v>0.9004746525449817</v>
+        <v>1.045110489618903</v>
       </c>
       <c r="K8">
-        <v>0.9162033928049702</v>
+        <v>1.04855662637426</v>
       </c>
       <c r="L8">
-        <v>0.8838760909110687</v>
+        <v>1.046723444027656</v>
       </c>
       <c r="M8">
-        <v>0.9744731432410916</v>
+        <v>1.054826354109197</v>
       </c>
       <c r="N8">
-        <v>0.901753429837482</v>
+        <v>1.018545582914693</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>0.9883675810308001</v>
+        <v>1.051963682691131</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>0.9518325187326567</v>
+        <v>1.045426697289673</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.8744721468675759</v>
+        <v>1.013612569850588</v>
       </c>
       <c r="D9">
-        <v>0.9035361459900463</v>
+        <v>1.029950477904316</v>
       </c>
       <c r="E9">
-        <v>0.8706021876381876</v>
+        <v>1.027672702539737</v>
       </c>
       <c r="F9">
-        <v>0.962763991640408</v>
+        <v>1.036268340362559</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.054203668846277</v>
+      </c>
       <c r="J9">
-        <v>0.9004746525449817</v>
+        <v>1.038693623991741</v>
       </c>
       <c r="K9">
-        <v>0.9162033928049702</v>
+        <v>1.04257562500066</v>
       </c>
       <c r="L9">
-        <v>0.8838760909110687</v>
+        <v>1.040332215423261</v>
       </c>
       <c r="M9">
-        <v>0.9744731432410916</v>
+        <v>1.048799172031414</v>
       </c>
       <c r="N9">
-        <v>0.901753429837482</v>
+        <v>1.016335804336994</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>0.9883675810308001</v>
+        <v>1.047193631266223</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>0.9518325187326567</v>
+        <v>1.041194628521538</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.8744721468675759</v>
+        <v>1.006313802165946</v>
       </c>
       <c r="D10">
-        <v>0.9035361459900463</v>
+        <v>1.024549620369554</v>
       </c>
       <c r="E10">
-        <v>0.8706021876381876</v>
+        <v>1.021982280487272</v>
       </c>
       <c r="F10">
-        <v>0.962763991640408</v>
+        <v>1.030889169708416</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.052272498002826</v>
+      </c>
       <c r="J10">
-        <v>0.9004746525449817</v>
+        <v>1.034279136838837</v>
       </c>
       <c r="K10">
-        <v>0.9162033928049702</v>
+        <v>1.03848933323324</v>
       </c>
       <c r="L10">
-        <v>0.8838760909110687</v>
+        <v>1.035965665692432</v>
       </c>
       <c r="M10">
-        <v>0.9744731432410916</v>
+        <v>1.044722242643284</v>
       </c>
       <c r="N10">
-        <v>0.901753429837482</v>
+        <v>1.014830186811652</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>0.9883675810308001</v>
+        <v>1.04401813245358</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>0.9518325187326567</v>
+        <v>1.038322110847696</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.8744721468675759</v>
+        <v>1.003785164321487</v>
       </c>
       <c r="D11">
-        <v>0.9035361459900463</v>
+        <v>1.02288753194212</v>
       </c>
       <c r="E11">
-        <v>0.8706021876381876</v>
+        <v>1.020259186253537</v>
       </c>
       <c r="F11">
-        <v>0.962763991640408</v>
+        <v>1.029505823783331</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.051680288700977</v>
+      </c>
       <c r="J11">
-        <v>0.9004746525449817</v>
+        <v>1.033001319451284</v>
       </c>
       <c r="K11">
-        <v>0.9162033928049702</v>
+        <v>1.037390356108565</v>
       </c>
       <c r="L11">
-        <v>0.8838760909110687</v>
+        <v>1.034808896720257</v>
       </c>
       <c r="M11">
-        <v>0.9744731432410916</v>
+        <v>1.043891959669332</v>
       </c>
       <c r="N11">
-        <v>0.901753429837482</v>
+        <v>1.014508424275715</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>0.9883675810308001</v>
+        <v>1.043794609825625</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>0.9518325187326567</v>
+        <v>1.037577812965201</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.8744721468675759</v>
+        <v>1.003090557233886</v>
       </c>
       <c r="D12">
-        <v>0.9035361459900463</v>
+        <v>1.02251853930861</v>
       </c>
       <c r="E12">
-        <v>0.8706021876381876</v>
+        <v>1.019898598427861</v>
       </c>
       <c r="F12">
-        <v>0.962763991640408</v>
+        <v>1.029343520671778</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.051556405167642</v>
+      </c>
       <c r="J12">
-        <v>0.9004746525449817</v>
+        <v>1.032764692625576</v>
       </c>
       <c r="K12">
-        <v>0.9162033928049702</v>
+        <v>1.037226672470224</v>
       </c>
       <c r="L12">
-        <v>0.8838760909110687</v>
+        <v>1.034654250524254</v>
       </c>
       <c r="M12">
-        <v>0.9744731432410916</v>
+        <v>1.04392934030765</v>
       </c>
       <c r="N12">
-        <v>0.901753429837482</v>
+        <v>1.014514523066915</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>0.9883675810308001</v>
+        <v>1.044148758549004</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>0.9518325187326567</v>
+        <v>1.037462084091919</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.8744721468675759</v>
+        <v>1.003790344529577</v>
       </c>
       <c r="D13">
-        <v>0.9035361459900463</v>
+        <v>1.023151792787079</v>
       </c>
       <c r="E13">
-        <v>0.8706021876381876</v>
+        <v>1.020589148175651</v>
       </c>
       <c r="F13">
-        <v>0.962763991640408</v>
+        <v>1.030142524135755</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.051802518805211</v>
+      </c>
       <c r="J13">
-        <v>0.9004746525449817</v>
+        <v>1.033343114276105</v>
       </c>
       <c r="K13">
-        <v>0.9162033928049702</v>
+        <v>1.03780589605534</v>
       </c>
       <c r="L13">
-        <v>0.8838760909110687</v>
+        <v>1.035289497930868</v>
       </c>
       <c r="M13">
-        <v>0.9744731432410916</v>
+        <v>1.044671987236202</v>
       </c>
       <c r="N13">
-        <v>0.901753429837482</v>
+        <v>1.014787179549796</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>0.9883675810308001</v>
+        <v>1.045011220934685</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>0.9518325187326567</v>
+        <v>1.037869127922506</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.8744721468675759</v>
+        <v>1.004911944188039</v>
       </c>
       <c r="D14">
-        <v>0.9035361459900463</v>
+        <v>1.024050210051332</v>
       </c>
       <c r="E14">
-        <v>0.8706021876381876</v>
+        <v>1.021548221764686</v>
       </c>
       <c r="F14">
-        <v>0.962763991640408</v>
+        <v>1.031137416327705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.052142165405701</v>
+      </c>
       <c r="J14">
-        <v>0.9004746525449817</v>
+        <v>1.034117162879272</v>
       </c>
       <c r="K14">
-        <v>0.9162033928049702</v>
+        <v>1.038548786759161</v>
       </c>
       <c r="L14">
-        <v>0.8838760909110687</v>
+        <v>1.036091349986834</v>
       </c>
       <c r="M14">
-        <v>0.9744731432410916</v>
+        <v>1.045511314762507</v>
       </c>
       <c r="N14">
-        <v>0.901753429837482</v>
+        <v>1.015098535841728</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>0.9883675810308001</v>
+        <v>1.045847217164322</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>0.9518325187326567</v>
+        <v>1.038395791311335</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.8744721468675759</v>
+        <v>1.005497333222389</v>
       </c>
       <c r="D15">
-        <v>0.9035361459900463</v>
+        <v>1.024499249368384</v>
       </c>
       <c r="E15">
-        <v>0.8706021876381876</v>
+        <v>1.022021851698394</v>
       </c>
       <c r="F15">
-        <v>0.962763991640408</v>
+        <v>1.031604786150095</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.052309202716441</v>
+      </c>
       <c r="J15">
-        <v>0.9004746525449817</v>
+        <v>1.034493475212367</v>
       </c>
       <c r="K15">
-        <v>0.9162033928049702</v>
+        <v>1.038904030204006</v>
       </c>
       <c r="L15">
-        <v>0.8838760909110687</v>
+        <v>1.036470394132498</v>
       </c>
       <c r="M15">
-        <v>0.9744731432410916</v>
+        <v>1.04588556074864</v>
       </c>
       <c r="N15">
-        <v>0.901753429837482</v>
+        <v>1.015237346705708</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>0.9883675810308001</v>
+        <v>1.04618039668961</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>0.9518325187326567</v>
+        <v>1.038652803354445</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.8744721468675759</v>
+        <v>1.008467494055642</v>
       </c>
       <c r="D16">
-        <v>0.9035361459900463</v>
+        <v>1.026678202718096</v>
       </c>
       <c r="E16">
-        <v>0.8706021876381876</v>
+        <v>1.024310627241301</v>
       </c>
       <c r="F16">
-        <v>0.962763991640408</v>
+        <v>1.033759856834078</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.053104874587199</v>
+      </c>
       <c r="J16">
-        <v>0.9004746525449817</v>
+        <v>1.036273417640469</v>
       </c>
       <c r="K16">
-        <v>0.9162033928049702</v>
+        <v>1.040546606311381</v>
       </c>
       <c r="L16">
-        <v>0.8838760909110687</v>
+        <v>1.038218962586928</v>
       </c>
       <c r="M16">
-        <v>0.9744731432410916</v>
+        <v>1.047510225601067</v>
       </c>
       <c r="N16">
-        <v>0.901753429837482</v>
+        <v>1.015830242902369</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>0.9883675810308001</v>
+        <v>1.047426002417372</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>0.9518325187326567</v>
+        <v>1.039817297952579</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.8744721468675759</v>
+        <v>1.010158440318672</v>
       </c>
       <c r="D17">
-        <v>0.9035361459900463</v>
+        <v>1.027880030425804</v>
       </c>
       <c r="E17">
-        <v>0.8706021876381876</v>
+        <v>1.025564649967636</v>
       </c>
       <c r="F17">
-        <v>0.962763991640408</v>
+        <v>1.034888638221757</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.053533057288206</v>
+      </c>
       <c r="J17">
-        <v>0.9004746525449817</v>
+        <v>1.03723176506762</v>
       </c>
       <c r="K17">
-        <v>0.9162033928049702</v>
+        <v>1.041416264432883</v>
       </c>
       <c r="L17">
-        <v>0.8838760909110687</v>
+        <v>1.03913880946953</v>
       </c>
       <c r="M17">
-        <v>0.9744731432410916</v>
+        <v>1.048311399248757</v>
       </c>
       <c r="N17">
-        <v>0.901753429837482</v>
+        <v>1.016121654329912</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>0.9883675810308001</v>
+        <v>1.04793092240877</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>0.9518325187326567</v>
+        <v>1.040434741878267</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.8744721468675759</v>
+        <v>1.010887142096084</v>
       </c>
       <c r="D18">
-        <v>0.9035361459900463</v>
+        <v>1.028320396477914</v>
       </c>
       <c r="E18">
-        <v>0.8706021876381876</v>
+        <v>1.026013311922531</v>
       </c>
       <c r="F18">
-        <v>0.962763991640408</v>
+        <v>1.035193178144282</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.053678900244299</v>
+      </c>
       <c r="J18">
-        <v>0.9004746525449817</v>
+        <v>1.037545063348672</v>
       </c>
       <c r="K18">
-        <v>0.9162033928049702</v>
+        <v>1.041667555405398</v>
       </c>
       <c r="L18">
-        <v>0.8838760909110687</v>
+        <v>1.039397636759775</v>
       </c>
       <c r="M18">
-        <v>0.9744731432410916</v>
+        <v>1.048430877223007</v>
       </c>
       <c r="N18">
-        <v>0.901753429837482</v>
+        <v>1.016166021637777</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>0.9883675810308001</v>
+        <v>1.047789133576047</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>0.9518325187326567</v>
+        <v>1.040600839578121</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.8744721468675759</v>
+        <v>1.01077055078203</v>
       </c>
       <c r="D19">
-        <v>0.9035361459900463</v>
+        <v>1.028102049300406</v>
       </c>
       <c r="E19">
-        <v>0.8706021876381876</v>
+        <v>1.0257555455838</v>
       </c>
       <c r="F19">
-        <v>0.962763991640408</v>
+        <v>1.034771971811371</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.053582352037909</v>
+      </c>
       <c r="J19">
-        <v>0.9004746525449817</v>
+        <v>1.03730045852791</v>
       </c>
       <c r="K19">
-        <v>0.9162033928049702</v>
+        <v>1.041390676132619</v>
       </c>
       <c r="L19">
-        <v>0.8838760909110687</v>
+        <v>1.039081794341054</v>
       </c>
       <c r="M19">
-        <v>0.9744731432410916</v>
+        <v>1.047954850975751</v>
       </c>
       <c r="N19">
-        <v>0.901753429837482</v>
+        <v>1.016002537322404</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>0.9883675810308001</v>
+        <v>1.047089477128291</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>0.9518325187326567</v>
+        <v>1.040411439042861</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.8744721468675759</v>
+        <v>1.008259383489093</v>
       </c>
       <c r="D20">
-        <v>0.9035361459900463</v>
+        <v>1.026008825937861</v>
       </c>
       <c r="E20">
-        <v>0.8706021876381876</v>
+        <v>1.02350590746753</v>
       </c>
       <c r="F20">
-        <v>0.962763991640408</v>
+        <v>1.03233057789702</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.052800424354297</v>
+      </c>
       <c r="J20">
-        <v>0.9004746525449817</v>
+        <v>1.03547559099842</v>
       </c>
       <c r="K20">
-        <v>0.9162033928049702</v>
+        <v>1.039609255445294</v>
       </c>
       <c r="L20">
-        <v>0.8838760909110687</v>
+        <v>1.037147653854344</v>
       </c>
       <c r="M20">
-        <v>0.9744731432410916</v>
+        <v>1.045827796647421</v>
       </c>
       <c r="N20">
-        <v>0.901753429837482</v>
+        <v>1.015247359268405</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>0.9883675810308001</v>
+        <v>1.044882577109481</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>0.9518325187326567</v>
+        <v>1.039155830285827</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.8744721468675759</v>
+        <v>1.002620896763997</v>
       </c>
       <c r="D21">
-        <v>0.9035361459900463</v>
+        <v>1.021809357671316</v>
       </c>
       <c r="E21">
-        <v>0.8706021876381876</v>
+        <v>1.019077003902089</v>
       </c>
       <c r="F21">
-        <v>0.962763991640408</v>
+        <v>1.028100628390814</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.051260656018391</v>
+      </c>
       <c r="J21">
-        <v>0.9004746525449817</v>
+        <v>1.03200944659583</v>
       </c>
       <c r="K21">
-        <v>0.9162033928049702</v>
+        <v>1.036388999163789</v>
       </c>
       <c r="L21">
-        <v>0.8838760909110687</v>
+        <v>1.033705750950038</v>
       </c>
       <c r="M21">
-        <v>0.9744731432410916</v>
+        <v>1.042568490486417</v>
       </c>
       <c r="N21">
-        <v>0.901753429837482</v>
+        <v>1.014043380547849</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>0.9883675810308001</v>
+        <v>1.042262493257435</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>0.9518325187326567</v>
+        <v>1.036882240084766</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.8744721468675759</v>
+        <v>0.9990155079402454</v>
       </c>
       <c r="D22">
-        <v>0.9035361459900463</v>
+        <v>1.019136844623963</v>
       </c>
       <c r="E22">
-        <v>0.8706021876381876</v>
+        <v>1.01626521827112</v>
       </c>
       <c r="F22">
-        <v>0.962763991640408</v>
+        <v>1.025433471563539</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.050262399137673</v>
+      </c>
       <c r="J22">
-        <v>0.9004746525449817</v>
+        <v>1.029798972121872</v>
       </c>
       <c r="K22">
-        <v>0.9162033928049702</v>
+        <v>1.034338496276041</v>
       </c>
       <c r="L22">
-        <v>0.8838760909110687</v>
+        <v>1.031521200663498</v>
       </c>
       <c r="M22">
-        <v>0.9744731432410916</v>
+        <v>1.04051738098122</v>
       </c>
       <c r="N22">
-        <v>0.901753429837482</v>
+        <v>1.013278613475329</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0.9883675810308001</v>
+        <v>1.040639179743755</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>0.9518325187326567</v>
+        <v>1.03541899034413</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.8744721468675759</v>
+        <v>1.000917001244131</v>
       </c>
       <c r="D23">
-        <v>0.9035361459900463</v>
+        <v>1.020537746157904</v>
       </c>
       <c r="E23">
-        <v>0.8706021876381876</v>
+        <v>1.017744218730177</v>
       </c>
       <c r="F23">
-        <v>0.962763991640408</v>
+        <v>1.0268360894879</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.050788252951899</v>
+      </c>
       <c r="J23">
-        <v>0.9004746525449817</v>
+        <v>1.030958809001092</v>
       </c>
       <c r="K23">
-        <v>0.9162033928049702</v>
+        <v>1.035409384541999</v>
       </c>
       <c r="L23">
-        <v>0.8838760909110687</v>
+        <v>1.032667301156513</v>
       </c>
       <c r="M23">
-        <v>0.9744731432410916</v>
+        <v>1.041593076249169</v>
       </c>
       <c r="N23">
-        <v>0.901753429837482</v>
+        <v>1.01367669985166</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>0.9883675810308001</v>
+        <v>1.041490519758729</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>0.9518325187326567</v>
+        <v>1.036166534255878</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.8744721468675759</v>
+        <v>1.008256331051154</v>
       </c>
       <c r="D24">
-        <v>0.9035361459900463</v>
+        <v>1.025975899952741</v>
       </c>
       <c r="E24">
-        <v>0.8706021876381876</v>
+        <v>1.023476031969635</v>
       </c>
       <c r="F24">
-        <v>0.962763991640408</v>
+        <v>1.032277874732822</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.05278711467077</v>
+      </c>
       <c r="J24">
-        <v>0.9004746525449817</v>
+        <v>1.035440223162334</v>
       </c>
       <c r="K24">
-        <v>0.9162033928049702</v>
+        <v>1.039561705172952</v>
       </c>
       <c r="L24">
-        <v>0.8838760909110687</v>
+        <v>1.037103054135367</v>
       </c>
       <c r="M24">
-        <v>0.9744731432410916</v>
+        <v>1.045760912652914</v>
       </c>
       <c r="N24">
-        <v>0.901753429837482</v>
+        <v>1.015220244552875</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>0.9883675810308001</v>
+        <v>1.044789070811952</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>0.9518325187326567</v>
+        <v>1.039094925344897</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.8744721468675759</v>
+        <v>1.016432441819821</v>
       </c>
       <c r="D25">
-        <v>0.9035361459900463</v>
+        <v>1.032068925636242</v>
       </c>
       <c r="E25">
-        <v>0.8706021876381876</v>
+        <v>1.029895715913181</v>
       </c>
       <c r="F25">
-        <v>0.962763991640408</v>
+        <v>1.038384714147</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.054941046072426</v>
+      </c>
       <c r="J25">
-        <v>0.9004746525449817</v>
+        <v>1.040419167425651</v>
       </c>
       <c r="K25">
-        <v>0.9162033928049702</v>
+        <v>1.044189004767974</v>
       </c>
       <c r="L25">
-        <v>0.8838760909110687</v>
+        <v>1.042047011693825</v>
       </c>
       <c r="M25">
-        <v>0.9744731432410916</v>
+        <v>1.050415008759467</v>
       </c>
       <c r="N25">
-        <v>0.901753429837482</v>
+        <v>1.016934990993181</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>0.9883675810308001</v>
+        <v>1.048472444859984</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>0.9518325187326567</v>
+        <v>1.042363776517745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022655381577728</v>
+        <v>1.021128046018599</v>
       </c>
       <c r="D2">
-        <v>1.036710172993184</v>
+        <v>1.034413371368304</v>
       </c>
       <c r="E2">
-        <v>1.03479925649114</v>
+        <v>1.033454499313994</v>
       </c>
       <c r="F2">
-        <v>1.0430580590089</v>
+        <v>1.041522456129685</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056513027598495</v>
+        <v>1.055897369745534</v>
       </c>
       <c r="J2">
-        <v>1.044178962851478</v>
+        <v>1.042694675954738</v>
       </c>
       <c r="K2">
-        <v>1.047680712996551</v>
+        <v>1.045413221245085</v>
       </c>
       <c r="L2">
-        <v>1.045794170659244</v>
+        <v>1.04446663370541</v>
       </c>
       <c r="M2">
-        <v>1.053948429786312</v>
+        <v>1.052432108690526</v>
       </c>
       <c r="N2">
-        <v>1.018221519000586</v>
+        <v>1.01828819609162</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051268874954876</v>
+        <v>1.050068825095015</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044784658438977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043190075729099</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023911873906613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027068002064449</v>
+        <v>1.025241659979667</v>
       </c>
       <c r="D3">
-        <v>1.040027798393317</v>
+        <v>1.037362135866284</v>
       </c>
       <c r="E3">
-        <v>1.038294585211526</v>
+        <v>1.036678974102872</v>
       </c>
       <c r="F3">
-        <v>1.046394823289423</v>
+        <v>1.044587294246173</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057595458045582</v>
+        <v>1.056857420544439</v>
       </c>
       <c r="J3">
-        <v>1.046847011569216</v>
+        <v>1.045067089337543</v>
       </c>
       <c r="K3">
-        <v>1.050172905289702</v>
+        <v>1.047538278427434</v>
       </c>
       <c r="L3">
-        <v>1.048459849080353</v>
+        <v>1.046863102336519</v>
       </c>
       <c r="M3">
-        <v>1.056466590220514</v>
+        <v>1.054679769398144</v>
       </c>
       <c r="N3">
-        <v>1.01913902704025</v>
+        <v>1.018929259387425</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053261798256857</v>
+        <v>1.051847672518804</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046544186751312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044689732368226</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024393288823623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029865335232494</v>
+        <v>1.027851748015516</v>
       </c>
       <c r="D4">
-        <v>1.042137654676625</v>
+        <v>1.039239733099811</v>
       </c>
       <c r="E4">
-        <v>1.040516620716921</v>
+        <v>1.038731169356918</v>
       </c>
       <c r="F4">
-        <v>1.048518519684542</v>
+        <v>1.046540206284692</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058264564828741</v>
+        <v>1.057449556899881</v>
       </c>
       <c r="J4">
-        <v>1.048534752019185</v>
+        <v>1.046568873669415</v>
       </c>
       <c r="K4">
-        <v>1.051752784188418</v>
+        <v>1.048886557833548</v>
       </c>
       <c r="L4">
-        <v>1.050149453127352</v>
+        <v>1.048383578774692</v>
       </c>
       <c r="M4">
-        <v>1.058064617165482</v>
+        <v>1.056107595964461</v>
       </c>
       <c r="N4">
-        <v>1.019719418280849</v>
+        <v>1.019335222889136</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054526506499641</v>
+        <v>1.052977683235259</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047662164849951</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045644035206201</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024696350211761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031033236873865</v>
+        <v>1.028941689590631</v>
       </c>
       <c r="D5">
-        <v>1.043022633437703</v>
+        <v>1.040027896217095</v>
       </c>
       <c r="E5">
-        <v>1.04144660839015</v>
+        <v>1.039590365297817</v>
       </c>
       <c r="F5">
-        <v>1.049408031558387</v>
+        <v>1.047358548308105</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058540642638182</v>
+        <v>1.057693514612272</v>
       </c>
       <c r="J5">
-        <v>1.049240468881216</v>
+        <v>1.047196994384615</v>
       </c>
       <c r="K5">
-        <v>1.052415831199291</v>
+        <v>1.049452971937312</v>
       </c>
       <c r="L5">
-        <v>1.050856554425766</v>
+        <v>1.049020117217232</v>
       </c>
       <c r="M5">
-        <v>1.05873400131947</v>
+        <v>1.056705986651625</v>
       </c>
       <c r="N5">
-        <v>1.019962956078724</v>
+        <v>1.019505627394965</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055056268940265</v>
+        <v>1.053451261179203</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048138079416704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.0460523405316</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024823867633689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03123503347942</v>
+        <v>1.02912967350448</v>
       </c>
       <c r="D6">
-        <v>1.043178703426961</v>
+        <v>1.040167007391473</v>
       </c>
       <c r="E6">
-        <v>1.04160837719864</v>
+        <v>1.039739549109944</v>
       </c>
       <c r="F6">
-        <v>1.049562903438976</v>
+        <v>1.047500861372062</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05858919184676</v>
+        <v>1.057736373685813</v>
       </c>
       <c r="J6">
-        <v>1.049364768638222</v>
+        <v>1.047307549380732</v>
       </c>
       <c r="K6">
-        <v>1.052534607811549</v>
+        <v>1.049554822474733</v>
       </c>
       <c r="L6">
-        <v>1.050980891946465</v>
+        <v>1.049131911703999</v>
       </c>
       <c r="M6">
-        <v>1.058851903036043</v>
+        <v>1.056811361710885</v>
       </c>
       <c r="N6">
-        <v>1.020006888469427</v>
+        <v>1.019536318030603</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055149578402594</v>
+        <v>1.053534657004993</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048230711823127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046133881413273</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024847708453532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029898499346677</v>
+        <v>1.027890517732204</v>
       </c>
       <c r="D7">
-        <v>1.042171003943643</v>
+        <v>1.039276766204544</v>
       </c>
       <c r="E7">
-        <v>1.040545722029135</v>
+        <v>1.038765032035046</v>
       </c>
       <c r="F7">
-        <v>1.048546621069846</v>
+        <v>1.046572045234023</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058275368882404</v>
+        <v>1.057462621516956</v>
       </c>
       <c r="J7">
-        <v>1.048561309755119</v>
+        <v>1.046600882459976</v>
       </c>
       <c r="K7">
-        <v>1.051782930178802</v>
+        <v>1.048920334218067</v>
       </c>
       <c r="L7">
-        <v>1.050175390347196</v>
+        <v>1.048414217207896</v>
       </c>
       <c r="M7">
-        <v>1.058089599926653</v>
+        <v>1.056136267519681</v>
       </c>
       <c r="N7">
-        <v>1.019731411658664</v>
+        <v>1.019372247586464</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054546278304665</v>
+        <v>1.053000374464449</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047703379785321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045689832588718</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024707631981073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024181213063393</v>
+        <v>1.022575700667312</v>
       </c>
       <c r="D8">
-        <v>1.037866265685315</v>
+        <v>1.035462543835192</v>
       </c>
       <c r="E8">
-        <v>1.036010122647478</v>
+        <v>1.034593935594159</v>
       </c>
       <c r="F8">
-        <v>1.044213745835823</v>
+        <v>1.042602810889643</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056894391308784</v>
+        <v>1.056246665791685</v>
       </c>
       <c r="J8">
-        <v>1.045110489618903</v>
+        <v>1.043548699816153</v>
       </c>
       <c r="K8">
-        <v>1.04855662637426</v>
+        <v>1.046182658408209</v>
       </c>
       <c r="L8">
-        <v>1.046723444027656</v>
+        <v>1.04532484438507</v>
       </c>
       <c r="M8">
-        <v>1.054826354109197</v>
+        <v>1.053235040605945</v>
       </c>
       <c r="N8">
-        <v>1.018545582914693</v>
+        <v>1.018602009851003</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051963682691131</v>
+        <v>1.050704283309611</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045426697289673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043759109733082</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024093498643151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013612569850588</v>
+        <v>1.012743159601886</v>
       </c>
       <c r="D9">
-        <v>1.029950477904316</v>
+        <v>1.028444322263543</v>
       </c>
       <c r="E9">
-        <v>1.027672702539737</v>
+        <v>1.02692179097511</v>
       </c>
       <c r="F9">
-        <v>1.036268340362559</v>
+        <v>1.035322738964763</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054203668846277</v>
+        <v>1.053855008327036</v>
       </c>
       <c r="J9">
-        <v>1.038693623991741</v>
+        <v>1.037853812260899</v>
       </c>
       <c r="K9">
-        <v>1.04257562500066</v>
+        <v>1.041092171669779</v>
       </c>
       <c r="L9">
-        <v>1.040332215423261</v>
+        <v>1.039592675762874</v>
       </c>
       <c r="M9">
-        <v>1.048799172031414</v>
+        <v>1.04786759381107</v>
       </c>
       <c r="N9">
-        <v>1.016335804336994</v>
+        <v>1.017072034552957</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047193631266223</v>
+        <v>1.046456355961018</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041194628521538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040156416787206</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022924780589945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006313802165946</v>
+        <v>1.005997735364669</v>
       </c>
       <c r="D10">
-        <v>1.024549620369554</v>
+        <v>1.023696422899352</v>
       </c>
       <c r="E10">
-        <v>1.021982280487272</v>
+        <v>1.021727825019062</v>
       </c>
       <c r="F10">
-        <v>1.030889169708416</v>
+        <v>1.030434545563429</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052272498002826</v>
+        <v>1.052146273924353</v>
       </c>
       <c r="J10">
-        <v>1.034279136838837</v>
+        <v>1.033975394296369</v>
       </c>
       <c r="K10">
-        <v>1.03848933323324</v>
+        <v>1.037650617904519</v>
       </c>
       <c r="L10">
-        <v>1.035965665692432</v>
+        <v>1.035715554141443</v>
       </c>
       <c r="M10">
-        <v>1.044722242643284</v>
+        <v>1.044275209622956</v>
       </c>
       <c r="N10">
-        <v>1.014830186811652</v>
+        <v>1.016153727151831</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04401813245358</v>
+        <v>1.043664359192119</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038322110847696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037741461206676</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022138062545399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003785164321487</v>
+        <v>1.003644671116812</v>
       </c>
       <c r="D11">
-        <v>1.02288753194212</v>
+        <v>1.022236787234269</v>
       </c>
       <c r="E11">
-        <v>1.020259186253537</v>
+        <v>1.020150951239359</v>
       </c>
       <c r="F11">
-        <v>1.029505823783331</v>
+        <v>1.029201242471929</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051680288700977</v>
+        <v>1.05162428179167</v>
       </c>
       <c r="J11">
-        <v>1.033001319451284</v>
+        <v>1.032866609630193</v>
       </c>
       <c r="K11">
-        <v>1.037390356108565</v>
+        <v>1.036751190697379</v>
       </c>
       <c r="L11">
-        <v>1.034808896720257</v>
+        <v>1.034702599206284</v>
       </c>
       <c r="M11">
-        <v>1.043891959669332</v>
+        <v>1.043592705809984</v>
       </c>
       <c r="N11">
-        <v>1.014508424275715</v>
+        <v>1.016159061581746</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043794609825625</v>
+        <v>1.043557903706354</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037577812965201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037141476005593</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022016346780283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003090557233886</v>
+        <v>1.002969591610158</v>
       </c>
       <c r="D12">
-        <v>1.02251853930861</v>
+        <v>1.021894530456713</v>
       </c>
       <c r="E12">
-        <v>1.019898598427861</v>
+        <v>1.019798691055552</v>
       </c>
       <c r="F12">
-        <v>1.029343520671778</v>
+        <v>1.029054469125561</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051556405167642</v>
+        <v>1.051508213907759</v>
       </c>
       <c r="J12">
-        <v>1.032764692625576</v>
+        <v>1.032648802556684</v>
       </c>
       <c r="K12">
-        <v>1.037226672470224</v>
+        <v>1.036613952772693</v>
       </c>
       <c r="L12">
-        <v>1.034654250524254</v>
+        <v>1.034556161501583</v>
       </c>
       <c r="M12">
-        <v>1.04392934030765</v>
+        <v>1.043645426283444</v>
       </c>
       <c r="N12">
-        <v>1.014514523066915</v>
+        <v>1.016254737462905</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044148758549004</v>
+        <v>1.043924261236256</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037462084091919</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037044446898588</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.0220443584958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003790344529577</v>
+        <v>1.00355527116109</v>
       </c>
       <c r="D13">
-        <v>1.023151792787079</v>
+        <v>1.022408740014306</v>
       </c>
       <c r="E13">
-        <v>1.020589148175651</v>
+        <v>1.020379592691665</v>
       </c>
       <c r="F13">
-        <v>1.030142524135755</v>
+        <v>1.029755743031601</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051802518805211</v>
+        <v>1.051708850056011</v>
       </c>
       <c r="J13">
-        <v>1.033343114276105</v>
+        <v>1.033117850319464</v>
       </c>
       <c r="K13">
-        <v>1.03780589605534</v>
+        <v>1.037076221684028</v>
       </c>
       <c r="L13">
-        <v>1.035289497930868</v>
+        <v>1.035083737529554</v>
       </c>
       <c r="M13">
-        <v>1.044671987236202</v>
+        <v>1.044292044824798</v>
       </c>
       <c r="N13">
-        <v>1.014787179549796</v>
+        <v>1.016399497329197</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045011220934685</v>
+        <v>1.044710866542241</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037869127922506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037368551308928</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022197964404414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004911944188039</v>
+        <v>1.004538140303086</v>
       </c>
       <c r="D14">
-        <v>1.024050210051332</v>
+        <v>1.023159452037013</v>
       </c>
       <c r="E14">
-        <v>1.021548221764686</v>
+        <v>1.021210505193557</v>
       </c>
       <c r="F14">
-        <v>1.031137416327705</v>
+        <v>1.030632513214447</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052142165405701</v>
+        <v>1.051993140237689</v>
       </c>
       <c r="J14">
-        <v>1.034117162879272</v>
+        <v>1.033758724564481</v>
       </c>
       <c r="K14">
-        <v>1.038548786759161</v>
+        <v>1.037673857559811</v>
       </c>
       <c r="L14">
-        <v>1.036091349986834</v>
+        <v>1.035759668662214</v>
       </c>
       <c r="M14">
-        <v>1.045511314762507</v>
+        <v>1.045015220448173</v>
       </c>
       <c r="N14">
-        <v>1.015098535841728</v>
+        <v>1.016525153833774</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045847217164322</v>
+        <v>1.045455094138267</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038395791311335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037792646178629</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022363511849478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005497333222389</v>
+        <v>1.0050604118821</v>
       </c>
       <c r="D15">
-        <v>1.024499249368384</v>
+        <v>1.023540342023926</v>
       </c>
       <c r="E15">
-        <v>1.022021851698394</v>
+        <v>1.021627137105154</v>
       </c>
       <c r="F15">
-        <v>1.031604786150095</v>
+        <v>1.031046235058978</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052309202716441</v>
+        <v>1.052134961001951</v>
       </c>
       <c r="J15">
-        <v>1.034493475212367</v>
+        <v>1.034074352057646</v>
       </c>
       <c r="K15">
-        <v>1.038904030204006</v>
+        <v>1.037962028740643</v>
       </c>
       <c r="L15">
-        <v>1.036470394132498</v>
+        <v>1.036082677343894</v>
       </c>
       <c r="M15">
-        <v>1.04588556074864</v>
+        <v>1.045336677433822</v>
       </c>
       <c r="N15">
-        <v>1.015237346705708</v>
+        <v>1.016573186209456</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04618039668961</v>
+        <v>1.045746559475948</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038652803354445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038002804972756</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022435604821343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008467494055642</v>
+        <v>1.007760801598535</v>
       </c>
       <c r="D16">
-        <v>1.026678202718096</v>
+        <v>1.025419703934279</v>
       </c>
       <c r="E16">
-        <v>1.024310627241301</v>
+        <v>1.023678262964396</v>
       </c>
       <c r="F16">
-        <v>1.033759856834078</v>
+        <v>1.032970932223855</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053104874587199</v>
+        <v>1.0528225634373</v>
       </c>
       <c r="J16">
-        <v>1.036273417640469</v>
+        <v>1.035594042378145</v>
       </c>
       <c r="K16">
-        <v>1.040546606311381</v>
+        <v>1.039309303872577</v>
       </c>
       <c r="L16">
-        <v>1.038218962586928</v>
+        <v>1.03759730416504</v>
       </c>
       <c r="M16">
-        <v>1.047510225601067</v>
+        <v>1.046734347431815</v>
       </c>
       <c r="N16">
-        <v>1.015830242902369</v>
+        <v>1.016762239992664</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047426002417372</v>
+        <v>1.046812730894865</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039817297952579</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038958807451548</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02273241164781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010158440318672</v>
+        <v>1.009326564521298</v>
       </c>
       <c r="D17">
-        <v>1.027880030425804</v>
+        <v>1.026476015521357</v>
       </c>
       <c r="E17">
-        <v>1.025564649967636</v>
+        <v>1.024824292103675</v>
       </c>
       <c r="F17">
-        <v>1.034888638221757</v>
+        <v>1.033991078606386</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053533057288206</v>
+        <v>1.053200387507655</v>
       </c>
       <c r="J17">
-        <v>1.03723176506762</v>
+        <v>1.036430995146864</v>
       </c>
       <c r="K17">
-        <v>1.041416264432883</v>
+        <v>1.040035220775327</v>
       </c>
       <c r="L17">
-        <v>1.03913880946953</v>
+        <v>1.038410625039177</v>
       </c>
       <c r="M17">
-        <v>1.048311399248757</v>
+        <v>1.047428261398186</v>
       </c>
       <c r="N17">
-        <v>1.016121654329912</v>
+        <v>1.016870222493823</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04793092240877</v>
+        <v>1.047232801315202</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040434741878267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039474867751386</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022874622958695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010887142096084</v>
+        <v>1.010034630859892</v>
       </c>
       <c r="D18">
-        <v>1.028320396477914</v>
+        <v>1.026884512308413</v>
       </c>
       <c r="E18">
-        <v>1.026013311922531</v>
+        <v>1.025259902627154</v>
       </c>
       <c r="F18">
-        <v>1.035193178144282</v>
+        <v>1.034276238116107</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053678900244299</v>
+        <v>1.053337778113058</v>
       </c>
       <c r="J18">
-        <v>1.037545063348672</v>
+        <v>1.036723829513593</v>
       </c>
       <c r="K18">
-        <v>1.041667555405398</v>
+        <v>1.040254777385799</v>
       </c>
       <c r="L18">
-        <v>1.039397636759775</v>
+        <v>1.038656411002781</v>
       </c>
       <c r="M18">
-        <v>1.048430877223007</v>
+        <v>1.047528433215346</v>
       </c>
       <c r="N18">
-        <v>1.016166021637777</v>
+        <v>1.01686989775878</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047789133576047</v>
+        <v>1.047075603817492</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040600839578121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039617387807924</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022882680251286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01077055078203</v>
+        <v>1.009980586377063</v>
       </c>
       <c r="D19">
-        <v>1.028102049300406</v>
+        <v>1.026727505026857</v>
       </c>
       <c r="E19">
-        <v>1.0257555455838</v>
+        <v>1.025064792506252</v>
       </c>
       <c r="F19">
-        <v>1.034771971811371</v>
+        <v>1.033907757640892</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053582352037909</v>
+        <v>1.053266204539316</v>
       </c>
       <c r="J19">
-        <v>1.03730045852791</v>
+        <v>1.036539314600967</v>
       </c>
       <c r="K19">
-        <v>1.041390676132619</v>
+        <v>1.040038143422734</v>
       </c>
       <c r="L19">
-        <v>1.039081794341054</v>
+        <v>1.038402158340329</v>
       </c>
       <c r="M19">
-        <v>1.047954850975751</v>
+        <v>1.047104239932382</v>
       </c>
       <c r="N19">
-        <v>1.016002537322404</v>
+        <v>1.01676094899633</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047089477128291</v>
+        <v>1.046416712897621</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040411439042861</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039471210487988</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022778955672325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008259383489093</v>
+        <v>1.007766273214582</v>
       </c>
       <c r="D20">
-        <v>1.026008825937861</v>
+        <v>1.024957874491504</v>
       </c>
       <c r="E20">
-        <v>1.02350590746753</v>
+        <v>1.023092275455435</v>
       </c>
       <c r="F20">
-        <v>1.03233057789702</v>
+        <v>1.031722897401095</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052800424354297</v>
+        <v>1.052603281760618</v>
       </c>
       <c r="J20">
-        <v>1.03547559099842</v>
+        <v>1.035001066183322</v>
       </c>
       <c r="K20">
-        <v>1.039609255445294</v>
+        <v>1.03857562093817</v>
       </c>
       <c r="L20">
-        <v>1.037147653854344</v>
+        <v>1.036740874923267</v>
       </c>
       <c r="M20">
-        <v>1.045827796647421</v>
+        <v>1.045229966755751</v>
       </c>
       <c r="N20">
-        <v>1.015247359268405</v>
+        <v>1.016332705235161</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044882577109481</v>
+        <v>1.044409460655189</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039155830285827</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038441469569542</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022354330919162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002620896763997</v>
+        <v>1.002694350631083</v>
       </c>
       <c r="D21">
-        <v>1.021809357671316</v>
+        <v>1.021377635946248</v>
       </c>
       <c r="E21">
-        <v>1.019077003902089</v>
+        <v>1.019173181478385</v>
       </c>
       <c r="F21">
-        <v>1.028100628390814</v>
+        <v>1.027977479874277</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051260656018391</v>
+        <v>1.051289929692059</v>
       </c>
       <c r="J21">
-        <v>1.03200944659583</v>
+        <v>1.032079852490014</v>
       </c>
       <c r="K21">
-        <v>1.036388999163789</v>
+        <v>1.03596501359045</v>
       </c>
       <c r="L21">
-        <v>1.033705750950038</v>
+        <v>1.033800194222151</v>
       </c>
       <c r="M21">
-        <v>1.042568490486417</v>
+        <v>1.042447512974434</v>
       </c>
       <c r="N21">
-        <v>1.014043380547849</v>
+        <v>1.015969496819109</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042262493257435</v>
+        <v>1.042166747895055</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036882240084766</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036599260507485</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021756122999548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9990155079402454</v>
+        <v>0.9994495266273269</v>
       </c>
       <c r="D22">
-        <v>1.019136844623963</v>
+        <v>1.019099025797601</v>
       </c>
       <c r="E22">
-        <v>1.01626521827112</v>
+        <v>1.016685854823467</v>
       </c>
       <c r="F22">
-        <v>1.025433471563539</v>
+        <v>1.025618766488491</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050262399137673</v>
+        <v>1.050435015979249</v>
       </c>
       <c r="J22">
-        <v>1.029798972121872</v>
+        <v>1.030213899417638</v>
       </c>
       <c r="K22">
-        <v>1.034338496276041</v>
+        <v>1.034301390376685</v>
       </c>
       <c r="L22">
-        <v>1.031521200663498</v>
+        <v>1.03193385375074</v>
       </c>
       <c r="M22">
-        <v>1.04051738098122</v>
+        <v>1.04069923958454</v>
       </c>
       <c r="N22">
-        <v>1.013278613475329</v>
+        <v>1.015732005435557</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040639179743755</v>
+        <v>1.040783108592873</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03541899034413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035408258741784</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021375406296568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000917001244131</v>
+        <v>1.001147804821741</v>
       </c>
       <c r="D23">
-        <v>1.020537746157904</v>
+        <v>1.020281323309391</v>
       </c>
       <c r="E23">
-        <v>1.017744218730177</v>
+        <v>1.017982057031697</v>
       </c>
       <c r="F23">
-        <v>1.0268360894879</v>
+        <v>1.026848902456437</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050788252951899</v>
+        <v>1.050880147394417</v>
       </c>
       <c r="J23">
-        <v>1.030958809001092</v>
+        <v>1.031179766730776</v>
       </c>
       <c r="K23">
-        <v>1.035409384541999</v>
+        <v>1.035157668538116</v>
       </c>
       <c r="L23">
-        <v>1.032667301156513</v>
+        <v>1.032900745227746</v>
       </c>
       <c r="M23">
-        <v>1.041593076249169</v>
+        <v>1.041605657841096</v>
       </c>
       <c r="N23">
-        <v>1.01367669985166</v>
+        <v>1.015808398379531</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041490519758729</v>
+        <v>1.04150047723144</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036166534255878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036003118308158</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021566551030922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008256331051154</v>
+        <v>1.007771954864202</v>
       </c>
       <c r="D24">
-        <v>1.025975899952741</v>
+        <v>1.024932950610652</v>
       </c>
       <c r="E24">
-        <v>1.023476031969635</v>
+        <v>1.023071398662506</v>
       </c>
       <c r="F24">
-        <v>1.032277874732822</v>
+        <v>1.031677503788079</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05278711467077</v>
+        <v>1.052593455559816</v>
       </c>
       <c r="J24">
-        <v>1.035440223162334</v>
+        <v>1.034974077593378</v>
       </c>
       <c r="K24">
-        <v>1.039561705172952</v>
+        <v>1.038535920166703</v>
       </c>
       <c r="L24">
-        <v>1.037103054135367</v>
+        <v>1.036705116659812</v>
       </c>
       <c r="M24">
-        <v>1.045760912652914</v>
+        <v>1.045170262576966</v>
       </c>
       <c r="N24">
-        <v>1.015220244552875</v>
+        <v>1.016312217452817</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044789070811952</v>
+        <v>1.044321613489447</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039094925344897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038383436195027</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022334082444105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016432441819821</v>
+        <v>1.015351191974578</v>
       </c>
       <c r="D25">
-        <v>1.032068925636242</v>
+        <v>1.030311306334021</v>
       </c>
       <c r="E25">
-        <v>1.029895715913181</v>
+        <v>1.02895355272036</v>
       </c>
       <c r="F25">
-        <v>1.038384714147</v>
+        <v>1.037250197038896</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054941046072426</v>
+        <v>1.054506745320259</v>
       </c>
       <c r="J25">
-        <v>1.040419167425651</v>
+        <v>1.039372746078715</v>
       </c>
       <c r="K25">
-        <v>1.044189004767974</v>
+        <v>1.042456619548076</v>
       </c>
       <c r="L25">
-        <v>1.042047011693825</v>
+        <v>1.041118433939716</v>
       </c>
       <c r="M25">
-        <v>1.050415008759467</v>
+        <v>1.049296517967687</v>
       </c>
       <c r="N25">
-        <v>1.016934990993181</v>
+        <v>1.01745193869992</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048472444859984</v>
+        <v>1.047587243512721</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042363776517745</v>
+        <v>1.041152368353357</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023242976135128</v>
       </c>
     </row>
   </sheetData>
